--- a/data/hotels_by_city/Dallas/Dallas_shard_89.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_89.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="557">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Monica R</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Karen H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r571390129-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>Waited 20 minutes for check-in, with reservation. Got read the rules and regulations. I thought, "Not my first time at the rodeo and your printer is not my problem, Rusty. Just give me a card key." We were tired.Room had a fridge, micro and coffee maker. What passes for a coffee maker is ludicrous! It's a little thing with no carafe, and pouches for 4-6 oz  paper cups. Naw! Just wait 'til 5:30 and get coffee in the breakfast room, or the Circle K. The coffee maker has an option for "strong". Not bad.Breakfast is cereal, muffins, toast, waffles, mini-kolache/danish, pre-cooked quasi fried/steamed hard eggs, 1/2 dozen boiled eggs, sausage links, milk, yogurt, oats, almonds and raisins. I would be happy to make my own coffee with a mini coffee maker! Busload of kids from Sam Rayburn ISD on our second day. I told them they were loud and they took over the pool. We left at 6 pm.I don't appreciate having a room of teens booked next to us. "Guest laundry" on the 2nd floor only had an ice machine.More</t>
   </si>
   <si>
+    <t>srgauger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r566049236-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -220,6 +229,9 @@
   </si>
   <si>
     <t>Unpleasant stay from start to finish.  Waited 20 minutes at front desk to check in.  NO ONE even around despite several of us waiting and calling out.  Got in the room and phone was out of order and not even getting a dial tone.  Tried calling the front desk via cell phone because TV not working.  No one ever answered the phone on 6 tries to the front desk.  Sofa in room was soiled with some kind of oil and filthy.  Public bathroom on first floor was filled with trash on the floor and the floor had standing water in puddles.  NOT up to Comfort Suites standards in any respect.  On check out, again, no one available at front desk.  Won’t be back.  More</t>
+  </si>
+  <si>
+    <t>GoGoLeslie</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r547949741-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
@@ -257,6 +269,9 @@
 There was more, but...If you are about to book, call them first and make sure their "remodel" is over. When I pulled in I felt like I was pulling into a scary movie.  Debris was leaning &amp; pushed up all along the front of the place, the parking lot was super sparse.Walking in was worse...furniture was PILED on top of more furniture.  And it smelled like horrible chemicals or really cheap cleaner.  The breakfast area chairs were piled all over, refrigerator removed and on top of a table.  This was I guess being deep cleaned but the smell of the cleaner was so strong that my mouth went instantly dry.Once I muddled past the mess (the lounge area had sofas piled onto eachother also), I side stepped a lot of white drywall mess or something all along the floors.  Got up to my room and felt very uncertain.  And that SMELL was still there...like it's everywhere.Once into the room I could barely get my suitecase through.  The sofa was at a horrible angle that took up a LOT of space, but had to be that way due to the odd triangle obstruction of a wall it was on.When I realized I couldn't escape the chemical smell, I was out.  The room was as bad as it was downstairs.  Like they tried to cover another issue or have extremely bad judgement when it comes to cleaning.There was more, but you get the point.  I felt bad for the girl at the desk..she was nice.I have yet to receive my credit back onto my card either.  I was told that a manager would refund me...no offer of a refund receipt or to speak to the manager.  When I asked for a receipt or something that showed I'd get a refund, I was told it can't be done.  I may have to fight this w/ my card company.More</t>
   </si>
   <si>
+    <t>terry0012015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r539153304-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -278,6 +293,9 @@
     <t>We stay at this hotel all the time, the last two visits has not been up to par of what we’re use. Couldn’t wait to get into the hot tub to relax after a day of activity’s just to hop in and it was luke warm. I asked the desk clerk to please turn up the temperature on it and was told she couldn’t do anything that only the pool guy can do that. Now I know better then that. We had this issue a few years ago at this hotel and the clerk went right in and took care of the situation, This hotel is also going down hill on cleaning the carpets, much need of a good vacuum, On a good note breakfast was great More</t>
   </si>
   <si>
+    <t>Mike H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r530586593-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -299,6 +317,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>gabcar66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r510740713-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -315,6 +336,9 @@
   </si>
   <si>
     <t>July 2017</t>
+  </si>
+  <si>
+    <t>RSpan2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r505589611-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
@@ -341,6 +365,9 @@
 Biggest issue was when I tried to use the hair dryer in the bathroom. It was very loud and within 30 seconds of turning it on, it started smoking and got very hot which caused the room to smell like smoke for a few hours. I unplugged it and called the front desk to report the issue. They said they would make a note to replace it the next day. At check-out the next morning, I tried to remind them since we were afraid it would catch on fire, but after waiting close to five minutes for someone to come to the desk, I gave up and just left our keys. Overall, a good place to...We stayed here two nights over a July weekend. The rooms are a nice size and the a/c works well which is a huge plus during the heat of a Texas summer. Bed was comfortable but a little on the hard side. Room appeared clean and bathroom was standard size for a Comfort Inn with good water pressure in the shower. The front desk manager was very friendly at check-in. Indoor pool is very small and was extremely cold the night we used it. Luckily no one else was at the pool when we got there, but two families arrived later and it became very crowded. Breakfast was standard for this type of hotel but was replenished regularly so that is a big plus.Biggest issue was when I tried to use the hair dryer in the bathroom. It was very loud and within 30 seconds of turning it on, it started smoking and got very hot which caused the room to smell like smoke for a few hours. I unplugged it and called the front desk to report the issue. They said they would make a note to replace it the next day. At check-out the next morning, I tried to remind them since we were afraid it would catch on fire, but after waiting close to five minutes for someone to come to the desk, I gave up and just left our keys. Overall, a good place to stay when in the area and will consider staying again since it is close to family we were visiting.More</t>
   </si>
   <si>
+    <t>river3450</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r505565461-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -356,6 +383,9 @@
     <t>From all appearances this seemed like a nice hotel. I checked in and everything in the room seemed fine, but I didn't really look around too well. After a couple of hours I decided to take a shower because I was heading out for dinner. I got in the shower and saw two used bars of soap. I immediately began to question if the room had be cleaned properly. I got out and went to the front desk to speak with a manager. I was told there was no manager on duty. The lady at the front desk did offer to move me to another room. I declined because I felt like if my room had not been cleaned properly, why would I expect that the next one would be clean? I felt it better for myself to stay at another hotel. I called mangement the next day and was told I would not receive any type of prorated refund. The manager told me she could only add points to my privileges account. I don't feel this is a proper way to treat a loyal rewards member. I also think it is bad management because I had to call the hotel to speak with the manager late the next day rather than management call me back after they found out about the problem. I would not stay here if you want to be treated well as a guest by management...From all appearances this seemed like a nice hotel. I checked in and everything in the room seemed fine, but I didn't really look around too well. After a couple of hours I decided to take a shower because I was heading out for dinner. I got in the shower and saw two used bars of soap. I immediately began to question if the room had be cleaned properly. I got out and went to the front desk to speak with a manager. I was told there was no manager on duty. The lady at the front desk did offer to move me to another room. I declined because I felt like if my room had not been cleaned properly, why would I expect that the next one would be clean? I felt it better for myself to stay at another hotel. I called mangement the next day and was told I would not receive any type of prorated refund. The manager told me she could only add points to my privileges account. I don't feel this is a proper way to treat a loyal rewards member. I also think it is bad management because I had to call the hotel to speak with the manager late the next day rather than management call me back after they found out about the problem. I would not stay here if you want to be treated well as a guest by management that appreciates that you chose to stay at their hotel. More</t>
   </si>
   <si>
+    <t>Don49680</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r494401663-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -377,6 +407,9 @@
     <t>As Choice Hotels members, we stay at a lot of Comfort Suites.  This one is very nice but when we checked in (around 4pm on a Monday), it would have been nice to be greeted, smiled at, asked if they could do anything for us....you know....make you feel like you are a valued customer not just a paying overnight guest.  Hopefully it was just this one desk clerk (a young female) and not the attitude of the place.  It is a 4 story structure that is just off I-20 with a service station/convenience store and Cracker Barrel across the side street.  The entire place is clean, neat and well kept.  Our room was a standard Comfort Suites 'suite' (bed or beds and sofa sleeper), modern clean bathroom.  The pool was nice and the hot tub worked well.  There is also a fitness center with a treadmill, eliptical, bike and hand weights and a universal weight machine and all were in working order.  Pool is open till 10pm and the fitness room 11pm.  This is part of a 21 day road trip for us and our 3rd night on the road in a Comfort Suites (2 nights ago Crossville TN and last night Forrest City AR.  Both establishments met us with smiles and pleasant conversation and both facilities were sold out.  In the two previous Comfort Suites, our room and keys were already processed for us and waiting at the desk...As Choice Hotels members, we stay at a lot of Comfort Suites.  This one is very nice but when we checked in (around 4pm on a Monday), it would have been nice to be greeted, smiled at, asked if they could do anything for us....you know....make you feel like you are a valued customer not just a paying overnight guest.  Hopefully it was just this one desk clerk (a young female) and not the attitude of the place.  It is a 4 story structure that is just off I-20 with a service station/convenience store and Cracker Barrel across the side street.  The entire place is clean, neat and well kept.  Our room was a standard Comfort Suites 'suite' (bed or beds and sofa sleeper), modern clean bathroom.  The pool was nice and the hot tub worked well.  There is also a fitness center with a treadmill, eliptical, bike and hand weights and a universal weight machine and all were in working order.  Pool is open till 10pm and the fitness room 11pm.  This is part of a 21 day road trip for us and our 3rd night on the road in a Comfort Suites (2 nights ago Crossville TN and last night Forrest City AR.  Both establishments met us with smiles and pleasant conversation and both facilities were sold out.  In the two previous Comfort Suites, our room and keys were already processed for us and waiting at the desk (these are Choice Privilages Points free nights).  This particular Comfort Suites had nothing ready at the desk, no smile, no greeting and there are very few guests staying.  As I started out this review, this is a nice facility but they need to work on their customer service!  WiFi seems adequate and the breakfast is the typical hot and cold items.More</t>
   </si>
   <si>
+    <t>Pat V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r475421848-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -398,6 +431,9 @@
     <t>I just got home from a 4 night stay here, and here's what I have to say about this place. First and foremost,  I will say that the 3 ladies who I encountered here were very friendly, and I haven't a single complaint about the service I was provided by them. I would also complement the cleaning lady on my gloor, as I always had fresh sheets and my room was gone over daily.  However,  where my complaints begin are in the overall upkeep of this hotel. The carpets are dirty to a point where they make you socks smell like cat urine.  They need some serious shampooing or need to be changed. Also, the elevators and hallways could use some love too.  I wouldn't say this is off the list of places to stay, but it's rapidly approaching it. More</t>
   </si>
   <si>
+    <t>Tommie A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r473875105-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -416,6 +452,9 @@
     <t>My first piece of advice is to always book online. The prices were about $20 more at the actual hotel than online. The clerk at the front desk was less than friendly. I chose the king suite with a kitchen and my parents had a double queen as this is all they had available. My parents room was identical with the exception obviously of the kitchen and beds. I wish I had chose her room. The rooms were clean regardless of the outdated furnishings. Overall my room was comfortable. My issue was the hood over the range. Its was windy this particular weekend and there seems to have been something flapping in the wind that was connected to the hood and echoed out all day and all night. Really made it difficult to sleep. They need a resolution for that immediately. I would stay again but I would not choose a room with a kitchen. I was in Room 216 on the second floor. I opted out of the free breakfast as I rarely find the free breakfasts to be any good. More</t>
   </si>
   <si>
+    <t>Treadman46</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r464404997-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -455,6 +494,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>MindiSue</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r444282286-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -479,6 +521,9 @@
     <t>The hotel property itself is very clean and neat, and the hotel has easy access to Dallas and Ft Worth.  There is also a Cracker Barrel restaurant that is just a short walk away.  The desk clerk was very friendly and checked me in quickly.  The room was very spacious, with a seating area that was set at an angle so that, even if someone were asleep, the lights in the seating area would not disturb them.  The room and bathroom were very clean and there was a more than adequate supply of towels and washcloths.  Breakfast included a wide assortment of choices including eggs, sausages, and waffles.  I was very pleased with my stay and would definitely stay here again.More</t>
   </si>
   <si>
+    <t>casmith_93035</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r439310966-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -515,6 +560,9 @@
     <t xml:space="preserve">Hotel was clean with modern new looking or well maintained decor. Lobby looked far more grand in person then in pictures. Room was nice comfortable and quiet.we stayed in a king room and couch had s full sized pull out bet. Breakfast was nice. Loved the heated indoor pool only wish the jacuzzi wasn't out of service.cookies and bananas lobby upon arrival with water </t>
   </si>
   <si>
+    <t>Jodie V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r425287315-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -536,6 +584,9 @@
     <t>Stayed here for two nights for a nearby wedding.  At check-in, they had complimentary citrus water and cookies, which we did not take advantage of at the time. However, on the day we were checking out, my boyfriend went to get some of the citrus water and was told that it was just for guests that were arriving.  We stayed on the first floor, which was convenient and those rooms had very tall ceilings which made the room seem very large.  Looking at the outside of the building, it was clear that only the first floor rooms had these tall of ceilings.  The room was nice with a mini-fridge, microwave, and small sitting area with a couch (I think it was a fold out, too).  The bed was large and comfortable.  The bathroom had dimmer lighting than I liked, especially for a bathroom (and my boyfriend agreed - and he's not in there trying to put on make-up).  The position of the full length mirror was odd and you really couldn't stand in front of it to view yourself fully.  The hotel is a pet friendly hotel and there was damage on the inside of the bathroom door frame from a dog (looked like it had been chewed in a couple of places).  We did use the hot tub and pool to relax, and it was nice to be able to turn on the jets/bubbles in the hot tub.  I...Stayed here for two nights for a nearby wedding.  At check-in, they had complimentary citrus water and cookies, which we did not take advantage of at the time. However, on the day we were checking out, my boyfriend went to get some of the citrus water and was told that it was just for guests that were arriving.  We stayed on the first floor, which was convenient and those rooms had very tall ceilings which made the room seem very large.  Looking at the outside of the building, it was clear that only the first floor rooms had these tall of ceilings.  The room was nice with a mini-fridge, microwave, and small sitting area with a couch (I think it was a fold out, too).  The bed was large and comfortable.  The bathroom had dimmer lighting than I liked, especially for a bathroom (and my boyfriend agreed - and he's not in there trying to put on make-up).  The position of the full length mirror was odd and you really couldn't stand in front of it to view yourself fully.  The hotel is a pet friendly hotel and there was damage on the inside of the bathroom door frame from a dog (looked like it had been chewed in a couple of places).  We did use the hot tub and pool to relax, and it was nice to be able to turn on the jets/bubbles in the hot tub.  I just wish they didn't have "pool hours" because we really wanted to use the hot tub after the wedding, but since it was almost midnight, the doors were locked.  There is plenty of parking available and the location was good for us.  It's also right next to Crackle Barrel, which was very convenient for us (we just walked there).More</t>
   </si>
   <si>
+    <t>Louise M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r419289026-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -551,6 +602,9 @@
     <t>Room was very big.  It was very clean; bed was comfortable.  Location very convenient for our purposes.  Will stay again.  The very first time we stayed, the breakfast was less than we would have liked.  That was in February 2016.  But whatever was going g on then has been fixed because the last two times the breakfast has been good.  Workers very courteous.</t>
   </si>
   <si>
+    <t>lovehazeltraveling</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r400631721-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -572,6 +626,9 @@
     <t>The graveyard front desk lady is wonderfully sweet and was a the perfect  person for my family to arrive to after driving 6 hours after we'd had a long work day. The room was updated and the large bed was very comfortable, but the couch bed had dirty linens that were covered in crumbs. The same front desk lady immediately fixed the issue and our night was just as peaceful as it was comfortable. The breakfast is a standard hotel breakfast but with minimal options. The greek yogurt was a week past due on its date, the waffles liquid was really thin, and we left hungry. I will say this though the breakfast lady is very sweet. The hotel has a corporate rule to have Fox News loud in the breakfast room, which she turned down, but the last thing my 5 or 12 yr needs to watch in the am is death so that should be rethought out. The pool while small was amazing and we all really enjoyed it. The morning desk lady came into the pool and shut off the hot tub moments before we were about to get back in and instructed us to turn it off and on each  time we used it. It was odd. So we dryed off, packed up, and went on the rest of our trip. So to wrap it all up I would stay again bc it is well priced...The graveyard front desk lady is wonderfully sweet and was a the perfect  person for my family to arrive to after driving 6 hours after we'd had a long work day. The room was updated and the large bed was very comfortable, but the couch bed had dirty linens that were covered in crumbs. The same front desk lady immediately fixed the issue and our night was just as peaceful as it was comfortable. The breakfast is a standard hotel breakfast but with minimal options. The greek yogurt was a week past due on its date, the waffles liquid was really thin, and we left hungry. I will say this though the breakfast lady is very sweet. The hotel has a corporate rule to have Fox News loud in the breakfast room, which she turned down, but the last thing my 5 or 12 yr needs to watch in the am is death so that should be rethought out. The pool while small was amazing and we all really enjoyed it. The morning desk lady came into the pool and shut off the hot tub moments before we were about to get back in and instructed us to turn it off and on each  time we used it. It was odd. So we dryed off, packed up, and went on the rest of our trip. So to wrap it all up I would stay again bc it is well priced and the night clerk was so great BUT I would recommend to management to due better housekeeping, spend a little more on breakfast, and not have murder loud and clear first thing in the am and you'd be an amazing hotel!More</t>
   </si>
   <si>
+    <t>Kathryn C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r368708230-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -590,6 +647,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Robert R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r347235929-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -611,6 +671,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>glennjam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r344067057-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -629,6 +692,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Tracy E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r339275313-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -660,6 +726,9 @@
   </si>
   <si>
     <t>December 2015</t>
+  </si>
+  <si>
+    <t>Lacey M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r329525759-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
@@ -682,6 +751,9 @@
 Breakfast was nicely laid out and the "signature" waffles they herald on their web site are indeed delicious,...Very nice place for a weary traveler to kick back and relax and then get a good night's sleep. The front desk staff were courteous, professional and efficient. The room was tidy, clean, quiet and well organized with a comfortable couch and chair and plenty of desk space to catch up on work. Mini-fridge and microwave both worked fine. The bathroom was sparkling clean. The bed was very comfortable and the assortment of both firm and soft pillows is much appreciated. I used the free Wi-Fi to check news, weather and email and it worked without a hitch for those applications. The climate control also worked promptly and accurately.  The Direct TV signal went out for a little while as a rainstorm blew through but that's Direct TV's weakness, not the hotel's. It's not so easy for some of us to figure out the process to reach the Direct TV channel listing through the remote even with the instructions, especially after a long day's travel - there's a list of the most common basic channels in the hotel information notebook on the desk, it would be an extra-nice touch to have that short-list on a laminated card next to the TV or on the bedside table. (That's not really a complaint, just a suggestion from a tech-savvy but remote-control-impaired and jet-lagged traveler.)Breakfast was nicely laid out and the "signature" waffles they herald on their web site are indeed delicious, light and fluffy. Their coffee was also quite good, and I like being able to choose the strength of the brew in their machine. All in all a well-run hotel with a clean and quiet room to collapse in after an exhausting day, a wonderful mattress and pillows to let you catch up on some much-needed sleep, and a good breakfast to get the next day started. Highly recommend! More</t>
   </si>
   <si>
+    <t>Josh M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r325606540-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -703,6 +775,9 @@
     <t>I travel a lot, and stay in lots of hotels.  While Comfort Suites isn't always the cheapest, they are far from the most expensive and they are pretty much the same from coast to coast.  This property is no exception.  The rooms are clean, roomy and smell clean and fresh.  The property is clean, the parking lot is well lit, and as always the breakfast is great for free hotel breakfast.  As a frequent traveler, I like to travel with my XBOX for the long boring nights in hotel rooms.  This property has newer flat screen tvs with Directv in the room and the ability to connect my XBOX with ease.  They don't have the locked down hospitality TVs where you can change the video inputs.  Long story short, I would stay here again without hesitationMore</t>
   </si>
   <si>
+    <t>1967Yankeesfan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r323529393-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -721,6 +796,9 @@
     <t>I stayed in this hotel for 5 nights. I was up on the 4th floor, right next to the exit at one end of the hall way. The hotel looks to be relatively new, and it is very close to the interstate. I travel a lot and I try to stay at the Choice Hotel Group whenever I can. The front desk staff were polite when I checked in, and that was really the only time I saw them. I came and went via the back door and walking the stairs most of the time. What I did find was that the breakfast was not up to the normal fare for a Comfort Suites. They only offered eggs and sausage cooked the same way every day. In most of the Suites, they vary the hot breakfast from day to day to include different types of eggs, different types of sausage (patties vs. links) and to include biscuits and gravy. This place only offered the egg and links. That is why it only rates 4 stars. Also, the wifi is not so strong on the 4th floor. They need something to boost it.More</t>
   </si>
   <si>
+    <t>John S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r310955784-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -739,6 +817,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Lynn P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r307324499-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -754,6 +835,9 @@
     <t>We needed a bed for the night while in town visiting relatives.  Access to this hotel was so easy and being across the parking lot from Cracker Barrell was an added bonus!  The rooms were clean and the staff was very friendly.  We will definitely stay here again!</t>
   </si>
   <si>
+    <t>Debra E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r298359594-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -772,6 +856,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>jvr975</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r293391702-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -787,6 +874,9 @@
     <t>After one night in another Benbrook motel we were so exhausted from lack of sleep, we fled early morning.  We found the Comfort Inn, were given a warm welcome, a very nice room, and invited to have breakfast.  The bed was so comfortable, the overall atmosphere so pleasurable, I cannot praise them enough..   These people know what they are doing.  They made our stay in Benbrook, which started off so badly, a very happy one.</t>
   </si>
   <si>
+    <t>barry t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r291875369-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -802,6 +892,9 @@
     <t>This isn't the fanciest place in Fort worth but it sure is clean, friendly and close to I-20 in South Fort Worth. Our air conditioning went out so instead of a second night in the sweltering heat we decided to stay at a hotel. I checked Orbitz and this one came up for a good price so I took it and it was worth it! I would highly recommend it for a place to stay.</t>
   </si>
   <si>
+    <t>Jim N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r269809295-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -823,6 +916,9 @@
     <t>This is a continuation of the post below. We were not able to stay at this hotel because no one was there to let us in the door and check us in. We waited 25 minutes before deciding to find another hotel. Now we are just trying to get our money back. It has been 11 days since that night. After 21 phone calls both to the hotel and the national customer service line I thought we had finally resolved this. We got the required proof in the required form to the required person and were expecting a refund.Instead they charged my card a 2nd time. I am 100% convinced the manager did this on purpose based on our dealings so far. It is really impressive how far someone in the hospitality business is willing to go out of there way to be inhospitable. This should have been a simple as "That shouldn't have happened, we are sorry, here is your money back". Instead they give me excuses about why the desk was left unattended but do not believe that we were ever there. They offer no apology and have not returned our money.More</t>
   </si>
   <si>
+    <t>Melissa N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r268555249-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -838,6 +934,9 @@
     <t>We prepaid for a room.  When we arrived, late at night, no one answered the phone or door.  We were not able to access our room.  We called the corporate office and they were unable to help.  We ended up having to stay at another hotel.  The hotel is presently insisting that we were not there, and refusing to provide us a refund.</t>
   </si>
   <si>
+    <t>Normanjp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r268173050-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -853,6 +952,9 @@
     <t>The lack of an automatic entry door to the hotel makes the entry very difficult for handicapped persons and for any person pulling a suitcase. In addition, there were no baggage carts close to the entry door. There were located on the first floor, but were difficult to find. The room was spacious and very clean. The ceilings (on the first floor) were unusually high – more than 10 feet high – giving the room an airy and pleasant atmosphere.</t>
   </si>
   <si>
+    <t>Peggy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r259012361-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -871,6 +973,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>DayTripDude</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r248546362-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -889,6 +994,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>mdmcleod</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r248142623-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -910,6 +1018,9 @@
     <t>It is interesting to see that other guests have had a complaint with the management team.  Rusty the General Manager is one of the rudest people I have ever deal with in the hospitality industry, and she seems to revel in that role.  Her customer service skills are not up to standard with a Choice Property.  I tried to book rooms for my parents as a late Christmas gift, she made is so difficult to change dates and was unable to answer questions as to why she wouldn't let me, I ended up cancelling the reservations.  Everyone else I talked to on her staff were great, it must be embarrassing and disappointing to have to work for someone with such vindictive attitude.More</t>
   </si>
   <si>
+    <t>Garry H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r245016841-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -931,6 +1042,9 @@
     <t>Where do I start. The property itself is 4 star. The stay was 3 star. Upon arrival, got our key cards and off to the 2nd floor. Neither card will work. Back down stairs, back up stairs and neither new card will work. Back down stairs and a new room on the 3rd floor. back up stairs and only 1 card will work. Am I on candid camera? My wife has lost all patience. She goes in the room and I.....guess what.......head back downstairs. A new card and outside for a smoke. When I get to the third floor, on the 4th or 5th try the card finally works. YEA! Beds and bathroom were great. Wifi pretty much a joke. Next morning a surprise service charge on my bill. Yelp reviewers had warned me about this so I questioned the charge. The clerk removed the charge "just for me and just this one time". The breakfast was the usual Choice Hotels boring. When the problems get worked out, this will be a great place to stay!More</t>
   </si>
   <si>
+    <t>jenkstrojanfan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r238369820-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -952,6 +1066,9 @@
     <t>Family live very close to this hotel but that matters not in the future! I WILL NOT be back. Been here several times in past two years. Internet &amp; TV reception leave a lot to desire. Internet is weak, TV STILL has major issues. Cookies were offered as we checked in. Nice. But I had to take last room available when I called on Thursday prior. That's okay getting the Executive Suite if it made me feel special. A couple bottles of water would have been nice. Breakfast was less than typical of this type of lodging. Pretend eggs and cold breakfast burritos. Texas sized waffles were available after long wait.  Coffee was the best thing, very good.Bathroom mirror had a vulgar saying on it. Only visible after steamed after hot shower. Maid needs to clean mirror Daily! One light bulb burnt out in bathroom, too.Noise wasn't a factor until a little one got up directly above our room. Not a big deal, just saying it to make others aware.More</t>
   </si>
   <si>
+    <t>Rboze</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r238123191-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -967,6 +1084,9 @@
     <t xml:space="preserve">Upon check-in the staff was very friendly and courteous. Offered a free cookie and bottle of water.  Check-in was very quick.  The room was probably one of the cleanest and most well kept rooms I've ever stayed in.  Receptionist called the room a few minutes after I got to the room to ensure the room was up to my expectations.  Free wifi was fast and great.  Comfortable bed &amp; pillows made for a great nights sleep.  Would definitely stay here again. </t>
   </si>
   <si>
+    <t>CruisinDave1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r236207934-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -982,6 +1102,9 @@
     <t>Stayed here two nights while home being worked on. Great service. The room was clean and quiet. Breakfast was typical Continental with Texas waffle. The only problem was no water the second day but was turned on quickly. Not the hotels fault.</t>
   </si>
   <si>
+    <t>noplacetogo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r232856435-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -997,6 +1120,9 @@
     <t>Very good staff at desk upon check in. Room was clean. Lighting seemed to be a little dark, not hiding anything but a little too dim. Breakfast was the usual fare, good assortment of hot, cold items. Fresh fruit, yogurt and beverages. They did run out of napkins and had to resort to paper towels. Overall would definitely stay here again. Located within walking distance to a Cracker Barrel.</t>
   </si>
   <si>
+    <t>Janice B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r232136776-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1015,6 +1141,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>alison_c1304</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r215979816-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1036,6 +1165,9 @@
     <t>Our room was clean and the breakfast was plentiful.  There was a huge wedding party there that was eating the food as fast as the server could put it out.   That was a problem but not the hotel's fault.  The staff was working hard to try to keep the food stocked.  The WiFi in our room was horrible.  When it did connect it never stayed connected long.  The indoor pool was clean and the water was warm.  The pool room was HOT.  It was uncomfortable for the people not swimming but worth it to wear out the kiddos before bedtime.  All the staff we talked to were nice.  Hotel is right off the highway and super easy to get to.  Be warned there is not a big tall sign that you can see from the highway.  We drove around in circles a few times before we found it.  The hotel is right next door to the Best Western... it does have a sign!More</t>
   </si>
   <si>
+    <t>amnesiac1c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r215896371-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1048,6 +1180,9 @@
     <t>Stayed here for Peach Pedal. Last year we stayed at the Best Western next door &amp; this was far superior. Updated, clean, great breakfast. Only problem was glitchy keycard access to building exterior door.</t>
   </si>
   <si>
+    <t>Ashley D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r210355712-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1069,6 +1204,9 @@
     <t>I stayed 3 nights at this hotel in early June. The first two nights were okay. The third night was awful. I was traveling with my children and the person in the room next to us began to smoke (this is a non-smoking hotel) and it came pouring into our room. I called the front desk to see what they could do, basically we ended up moving to a different room. The new room was filthy with dog food on the floor and pet hair all over. I complained to the manager who could care less. She stated it's only recommended that people cannot smoke, not mandatory. Do not stay at this hotel!More</t>
   </si>
   <si>
+    <t>Deb F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r207562695-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1087,6 +1225,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Raymond M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r207393283-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1105,6 +1246,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Tsnrc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r202150534-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1123,6 +1267,9 @@
     <t>I'm staying here on a business trip and the internet (wireless portion) in this hotel has been partially operating since the night I checked in--4/6/2014. I can sometimes log on and most times not log on. I've called the Internet help line on at least 8 different occasions. I've been told ATT has changed a switch and programmed this and that and the results are still the same. I've asked to speak to the manager about this issue on three different occasions and the response I get is she isn't here. When asked when is she here the response is, "not very often--she has other properties to manage".  This hotel could be a very nice property if the manager actually showed up to work occasionally and took care of issues.More</t>
   </si>
   <si>
+    <t>Travelerfrank79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r198000890-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1144,6 +1291,9 @@
     <t>Benbrook TX is a great little city on I-20 so I chose this hotel due to location and pricing.  The reviews seemed good.  At 9:30 on the first morning of my 4 day stay i get this call from the front desk saying that if I want my room cleaned that day i need to get up and leave the room!  The front desk clerk was snippy toward me when I arrived, though I had reservations.  She also made me initial on the check-in form that there were no pets allowed but I saw at least 5 dogs in the hotel.  The breakfasts were mediocre and sparse.  Be careful around the elevator as there is an indoor pool and that area stayed wet my entire stay. The rates are good but the staff needs to be trained.More</t>
   </si>
   <si>
+    <t>Citygirl124</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r183411502-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1159,6 +1309,9 @@
     <t xml:space="preserve">My family, consisting of my 2 kids, my husband, and I, stayed at this hotel just for a little "getaway" for 2 nights. The stay was great. The breakfast was good and fresh. The rooms and beds were comfy. I loved the location of the hotel, as it's right by cracker barrel, a long time favorite. We will definitely be staying again. </t>
   </si>
   <si>
+    <t>Beatrice F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r183281534-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1174,6 +1327,9 @@
     <t>Only a few steps from convenience store and cracker barrel.  Comfy bed, clean bathroom.  Ample parking, but huge pieces o off glass in parking lot. Faux news on in lobby but they changed it when I asked. Only 15 pet fee, a lot of room nearby to take dog out. Staff not that friendly.  Good value.</t>
   </si>
   <si>
+    <t>Teri R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r182723609-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1189,6 +1345,9 @@
     <t>Nice hotel with large suite. Friendly staff. High ceilings and comfy couch with coffee table for viewing the football game. Bed very comfortable with nice shower enclosure and large fluffy towels. Will definitely stay again.</t>
   </si>
   <si>
+    <t>ChipDThompson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r172142645-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1207,6 +1366,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>DeniseYRoss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r170617604-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1222,6 +1384,9 @@
     <t>On a road trip, comfort and familiarity are a must in a hotel. We always opt for Comfort Suites because:1) they are cheap but the top of the line for the Choice Hotel brand2) the beds are comfortable. Just to compare, we own a Tempurpedic at home3) they come with a sleeper sofa for an extra bed for the kids4) they allow dogs for a small fee. ( usually $15)</t>
   </si>
   <si>
+    <t>inteller</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r168166779-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1240,6 +1405,9 @@
     <t>I checked into this place at 6 after a long drive.  Immediately after checking in I noticed what appeared to be a long term stay family across the way with screaming kids and yelling adults.  I went to dinner and came back and it was still loud.  I called and was accommodated to another room on the top floor.  This room had me next to a crying baby and women were loitering in the hallways.  This room did not have any privacy/darkening curtains and I had to clamp the shams together using clothes hangers.  Cheap Wal-Mart TV cast off a bright light that illuminated the whole room in the dark, had to cover that up.More</t>
   </si>
   <si>
+    <t>Rick S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r166969125-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1255,6 +1423,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Greekprof7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r161232538-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1291,6 +1462,9 @@
     <t>My last review of this facility was less than favorable. I went back for an overnight stay a couple months ago. I was greeted by my name! The review must have gotten the managers attention for the desk clerk (think she was night manager, too) was a nice as you could ever ask for. She put me into a nice suite and followed up with a phone call later to insure I was pleased.I must say the TV "still" has issues. The Dish doesn't pick up the local channels very well. But this time I was there to sleep, not watch TV. Bed was extremely comfortable. The person in-charge of the Breakfast bar was doing an excellent job, keeping all foods warm and presentable.More</t>
   </si>
   <si>
+    <t>Fly4Ever23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r153743340-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1306,6 +1480,9 @@
     <t>My family and I have stayed here for 2 nights. It was a great time! We went on a little mini vacation. The pool and jaccuzi was very nice, breakfast was well put-also loved it because it was a very bright big room and not too many people, the rooms are average but I also love the little counter extension behind the couch. The staff were super friendly (we were greeted by a nice lady named Rusty). I totally reccomend you and your family to stay here!</t>
   </si>
   <si>
+    <t>katncol</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r153145092-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1321,6 +1498,9 @@
     <t>Really enjoyed our stay. Very clean and convenient to TCU area. Super-comfortable king bed but our teenager found the fold-out sofa bed a little uncomfortable. Breakfast looked great but we were running short on time and only had juice and coffee. Pleasant desk clerk.</t>
   </si>
   <si>
+    <t>dc45t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r151125719-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1336,6 +1516,9 @@
     <t>Very friendly check-in clerk as was the morning clerk.  Room was clean and quiet.  Bed was comfortable with big, fluffy pillows that really helped in getting a good night's sleep.  There were about 4 of them on the king-sized bed!  Bathroom was extremely clean with plenty of soft, clean towels.  The morning breakfast was alright, nothing real special but it was available for guests.  The coffee from the breakfast bar, as well as the pot in the room, was really bad but drinkable.  Overall, this is a nice place to get a good rest in a comfortable, clean and quiet setting.  Will stay again (but bring my own coffee)!</t>
   </si>
   <si>
+    <t>Jay92</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r150555533-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1354,6 +1537,9 @@
     <t>I was expecting a little more from a Comfort Suites branded hotel. The room wasn't much bigger than a standard hotel room. It had a partial wall between the bed and the small couch...not what I would call a "suite". The bed was pretty stiff...it reminded me of the quality of bed you would get at a cheap rate budget hotel.  I did appreciate the cleanliness of the room. The breakfast was adequate with the usual pastries, waffles, and did include link sausage. Overall, it wasn't a bad stay but for the price of this room, I think I could find somewhere a little nicer next time I visit the DFW area.More</t>
   </si>
   <si>
+    <t>John L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r148392417-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1390,6 +1576,9 @@
     <t>After fighting rain all day on my drive from Jenks, Ok, I was ready to settle in for a good nights rest and watch DA BEARS play against the Texans. OMGosh! A football fans worst nightmare! Cable issues with local TV channels. TV was horrible. It made my Bears Lose, too!You say and I agree, big deal! BUT thats why I choose to stay here, to watch that game. Being of the age one tends to forget things, I remembered that when I stayed here last summer, the TV was the same! After talking to Manager this morning, she was aware it has been this way for years. Room was very nice. Bed extremely comfortable. Bed is typical "make your own waffles" and other dry foods. Like I said, typical.Most of staff were excellent. Senior rate was appreciated, too. Tina was specially helpful when I checked in.More</t>
   </si>
   <si>
+    <t>Robert G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r143805804-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1408,6 +1597,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>pinlow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r129790060-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1427,6 +1619,9 @@
   </si>
   <si>
     <t>I stayed a few miles farther from my grandkids in Burleson, TX because of the pictures and comments on this hotel. I am disabled and on oxygen. My granddaughter came along to help me with my stuff.The front desk clerk was very friendly and ask if the room was OK for me and if I needed anything. She told me about the ice machines and breakfast hours. The loby, breakfast area, room and pool were all done very modern with Texas flair. I love all the natural rock. Comfortable bed, living area with sofa, flat screen TV, granite bath, fridge, coffe pot and microwave. AC I could turn as low as I wanted. Even some tree top views. Love the restaurants and gas store being so close too. Only a few minutes from anything off south or west 820.More</t>
+  </si>
+  <si>
+    <t>Jhand2</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r129432181-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
@@ -1455,6 +1650,9 @@
   In conclusion, I would recommend this hotel to others because of the quiet atmosphere, and quality upkeep of the facility.  I will probably be returning here again shortly because it close...This is my second time to staying at this Comfort Suites Location during the past month.  I was very impressed with the service that received when I walked into the door to register. The two individuals working the front were very polite and helpful at letting me know what was in the area.I choose the specific hotel because I have two children who love to swim and this hotel has an indoor pool.  And I can truly say that it is one nicer indoor pools that I have seen. It is a large "L" Shape pool.  The water was very clean and fairly warm.The double queen bed room that we stayed in was very large.  I can tell the individual that cleaned this room must of spent some quality time cleaning because every thing seemed brand new looking.  I thought the bathroom was well maintained.  The bed was very soft.  I had a difficult time checking out because I did not want to leave this behind.The breakfast had a good variety in the morning.. Eggs. Pigs in blanket, sausage, waffles, danishes, and plenty of other things.  In addition, there was a hotel employee always present in the room refilling the breakfast items that were becoming low.  In conclusion, I would recommend this hotel to others because of the quiet atmosphere, and quality upkeep of the facility.  I will probably be returning here again shortly because it close to the hospital that my grandfather is staying at.  Even through the pain of his sickness, this hotel has provided my family and I some comfort.  John Hand (Waco, Tx) More</t>
   </si>
   <si>
+    <t>MrsKLM3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r127444859-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1476,6 +1674,9 @@
     <t>I was very impressed with this hotel all around!  The room was clean and nice.  We stayed for 5 days and the rate was very reasonable.  Very good customer service and ladies were pleasant. Our room was cleaned and restocked with fresh towels each day when we got back.  Hotel is within walking distance of Circle K and Cracker Barrel. The first night we stayed, we forgot to take down our GPS and radar detector and the next morning, we had a reminder from the local sheriff to remove it; it was nice to have someone patrolling the area.  Would definitely stay here again, however not much to do in TX on this side of town!More</t>
   </si>
   <si>
+    <t>K7ISS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r86187869-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1495,6 +1696,9 @@
   </si>
   <si>
     <t>I had a reservation where we found out that we had to back out the day before going, called hotel to cancel just by a couple of hours after their 24 hour cut off to cancel and would not cancel. Keeping in mind that this is the weekend of the NASCAR race in Texas and sure to be able to sell that room that I had to cancel on.  I attempted to give them 20 hours notice and still my credit card was tagged and declined, or it would have probably have taken. After 3 calls and 3 staff members very unpleasant to speak with. If customer service is not good on phone I can only wonder what it is like in the hotel. Great pictures of the hotel at least.More</t>
+  </si>
+  <si>
+    <t>JeannaBanana85</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r40132301-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
@@ -2021,43 +2225,47 @@
       <c r="A2" t="n">
         <v>57719</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>6459</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2071,50 +2279,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57719</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>10578</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2132,50 +2344,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57719</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>125139</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2189,50 +2405,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57719</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>125140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -2252,50 +2472,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57719</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>125141</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2309,50 +2533,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57719</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2370,50 +2598,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57719</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>125142</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
         <v>94</v>
-      </c>
-      <c r="O8" t="s">
-        <v>88</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2427,50 +2659,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57719</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>125143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
         <v>94</v>
-      </c>
-      <c r="O9" t="s">
-        <v>88</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2488,50 +2724,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57719</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>125144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" t="s">
         <v>94</v>
-      </c>
-      <c r="O10" t="s">
-        <v>88</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2545,50 +2785,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57719</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>125145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2606,50 +2850,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57719</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>96840</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2663,50 +2911,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57719</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>125146</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2720,50 +2972,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57719</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>71744</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2781,50 +3037,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57719</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>125140</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2838,50 +3098,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57719</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>125147</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2899,50 +3163,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57719</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>125148</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2956,7 +3224,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
@@ -2969,37 +3237,37 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3013,50 +3281,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57719</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>91777</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3076,50 +3348,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57719</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>34707</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3137,50 +3413,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57719</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>125149</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="J21" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="O21" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3194,50 +3474,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57719</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>17644</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="J22" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="O22" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3251,50 +3535,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57719</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>1029</v>
+      </c>
+      <c r="C23" t="s">
+        <v>203</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="J23" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="O23" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3308,50 +3596,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57719</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>125150</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="J24" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="K24" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3365,50 +3657,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57719</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>8163</v>
+      </c>
+      <c r="C25" t="s">
+        <v>218</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="J25" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="K25" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O25" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3422,7 +3718,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26">
@@ -3435,37 +3731,37 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="J26" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="K26" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3483,41 +3779,45 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57719</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>125151</v>
+      </c>
+      <c r="C27" t="s">
+        <v>230</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="J27" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="K27" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
@@ -3536,50 +3836,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57719</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>3640</v>
+      </c>
+      <c r="C28" t="s">
+        <v>237</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="J28" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="K28" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="L28" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="O28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3599,50 +3903,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>57719</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>125152</v>
+      </c>
+      <c r="C29" t="s">
+        <v>245</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="J29" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="K29" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="L29" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="O29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3660,50 +3968,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>57719</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>6540</v>
+      </c>
+      <c r="C30" t="s">
+        <v>252</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="J30" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="K30" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3723,50 +4035,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>57719</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>54335</v>
+      </c>
+      <c r="C31" t="s">
+        <v>259</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="J31" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="K31" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="O31" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3784,50 +4100,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>57719</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>67165</v>
+      </c>
+      <c r="C32" t="s">
+        <v>265</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="J32" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="K32" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="L32" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="O32" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3847,50 +4167,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>57719</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>125153</v>
+      </c>
+      <c r="C33" t="s">
+        <v>272</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="J33" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="K33" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="L33" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3908,50 +4232,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>57719</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>20633</v>
+      </c>
+      <c r="C34" t="s">
+        <v>278</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="J34" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="K34" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="L34" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="O34" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -3971,50 +4299,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>57719</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>125154</v>
+      </c>
+      <c r="C35" t="s">
+        <v>284</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="J35" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="K35" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="L35" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="O35" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4030,50 +4362,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>57719</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>22083</v>
+      </c>
+      <c r="C36" t="s">
+        <v>292</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="J36" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="K36" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="L36" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="O36" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4087,50 +4423,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>57719</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>125155</v>
+      </c>
+      <c r="C37" t="s">
+        <v>298</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="J37" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="K37" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="L37" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4148,50 +4488,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>57719</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>20929</v>
+      </c>
+      <c r="C38" t="s">
+        <v>304</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="J38" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="K38" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="L38" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="O38" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4209,50 +4553,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>57719</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>125156</v>
+      </c>
+      <c r="C39" t="s">
+        <v>311</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="J39" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="K39" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="L39" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="O39" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -4272,50 +4620,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>57719</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>125157</v>
+      </c>
+      <c r="C40" t="s">
+        <v>318</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="J40" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="K40" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="L40" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="O40" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4329,50 +4681,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>57719</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>111626</v>
+      </c>
+      <c r="C41" t="s">
+        <v>326</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="J41" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="K41" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -4390,50 +4746,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>57719</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>125158</v>
+      </c>
+      <c r="C42" t="s">
+        <v>334</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="J42" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="K42" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>2</v>
@@ -4453,50 +4813,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>57719</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>125159</v>
+      </c>
+      <c r="C43" t="s">
+        <v>342</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="J43" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="K43" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="L43" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="O43" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4510,50 +4874,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>57719</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>125160</v>
+      </c>
+      <c r="C44" t="s">
+        <v>348</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="J44" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="K44" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="L44" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="O44" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4571,41 +4939,45 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>57719</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>125161</v>
+      </c>
+      <c r="C45" t="s">
+        <v>354</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="J45" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="K45" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
@@ -4624,50 +4996,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>57719</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>29610</v>
+      </c>
+      <c r="C46" t="s">
+        <v>360</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="J46" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="K46" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="O46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4685,50 +5061,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>57719</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>125162</v>
+      </c>
+      <c r="C47" t="s">
+        <v>367</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="J47" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="K47" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="L47" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="O47" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -4748,50 +5128,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>57719</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>125163</v>
+      </c>
+      <c r="C48" t="s">
+        <v>375</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="J48" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="K48" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="L48" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -4809,50 +5193,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>57719</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>13411</v>
+      </c>
+      <c r="C49" t="s">
+        <v>380</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="J49" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="K49" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="L49" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="O49" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -4876,50 +5264,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>57719</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>125164</v>
+      </c>
+      <c r="C50" t="s">
+        <v>388</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="J50" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="K50" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="L50" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -4943,50 +5335,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>57719</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>10038</v>
+      </c>
+      <c r="C51" t="s">
+        <v>395</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="J51" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="K51" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="L51" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="O51" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5010,50 +5406,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>57719</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>125165</v>
+      </c>
+      <c r="C52" t="s">
+        <v>402</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="J52" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="K52" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="L52" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="O52" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P52" t="n">
         <v>2</v>
@@ -5077,50 +5477,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>57719</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>125166</v>
+      </c>
+      <c r="C53" t="s">
+        <v>409</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="J53" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="K53" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="L53" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5144,41 +5548,45 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>57719</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>125167</v>
+      </c>
+      <c r="C54" t="s">
+        <v>417</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="J54" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="K54" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="L54" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
@@ -5197,41 +5605,45 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>57719</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>5469</v>
+      </c>
+      <c r="C55" t="s">
+        <v>423</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>374</v>
+        <v>425</v>
       </c>
       <c r="J55" t="s">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="K55" t="s">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="L55" t="s">
-        <v>377</v>
+        <v>428</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
@@ -5260,41 +5672,45 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>377</v>
+        <v>428</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>57719</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>108740</v>
+      </c>
+      <c r="C56" t="s">
+        <v>429</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="J56" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="K56" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="L56" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
@@ -5323,50 +5739,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>57719</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>125168</v>
+      </c>
+      <c r="C57" t="s">
+        <v>435</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="J57" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="K57" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="L57" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="O57" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5390,41 +5810,45 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57719</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>125169</v>
+      </c>
+      <c r="C58" t="s">
+        <v>442</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
       <c r="J58" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="K58" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="L58" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
@@ -5453,50 +5877,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>57719</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>125170</v>
+      </c>
+      <c r="C59" t="s">
+        <v>448</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="J59" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="K59" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="L59" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="O59" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -5518,50 +5946,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>57719</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>5140</v>
+      </c>
+      <c r="C60" t="s">
+        <v>455</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="J60" t="s">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="K60" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="L60" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="O60" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5585,41 +6017,45 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>57719</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>125171</v>
+      </c>
+      <c r="C61" t="s">
+        <v>461</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="J61" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="K61" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="L61" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
@@ -5648,50 +6084,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>57719</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>125157</v>
+      </c>
+      <c r="C62" t="s">
+        <v>334</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
       <c r="J62" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
       <c r="K62" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="L62" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="O62" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5715,41 +6155,45 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>416</v>
+        <v>473</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>57719</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>125172</v>
+      </c>
+      <c r="C63" t="s">
+        <v>474</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="J63" t="s">
-        <v>419</v>
+        <v>477</v>
       </c>
       <c r="K63" t="s">
-        <v>420</v>
+        <v>478</v>
       </c>
       <c r="L63" t="s">
-        <v>421</v>
+        <v>479</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
@@ -5778,41 +6222,45 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>421</v>
+        <v>479</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>57719</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>125173</v>
+      </c>
+      <c r="C64" t="s">
+        <v>480</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
       <c r="J64" t="s">
-        <v>424</v>
+        <v>483</v>
       </c>
       <c r="K64" t="s">
-        <v>425</v>
+        <v>484</v>
       </c>
       <c r="L64" t="s">
-        <v>426</v>
+        <v>485</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
@@ -5841,50 +6289,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>426</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>57719</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>125174</v>
+      </c>
+      <c r="C65" t="s">
+        <v>486</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>428</v>
+        <v>488</v>
       </c>
       <c r="J65" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="K65" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="L65" t="s">
-        <v>431</v>
+        <v>491</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="O65" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -5908,50 +6360,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>431</v>
+        <v>491</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>57719</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>125175</v>
+      </c>
+      <c r="C66" t="s">
+        <v>492</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
       <c r="J66" t="s">
-        <v>434</v>
+        <v>495</v>
       </c>
       <c r="K66" t="s">
-        <v>435</v>
+        <v>496</v>
       </c>
       <c r="L66" t="s">
-        <v>436</v>
+        <v>497</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -5975,50 +6431,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>57719</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>2639</v>
+      </c>
+      <c r="C67" t="s">
+        <v>499</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
       <c r="J67" t="s">
-        <v>440</v>
+        <v>502</v>
       </c>
       <c r="K67" t="s">
-        <v>441</v>
+        <v>503</v>
       </c>
       <c r="L67" t="s">
-        <v>442</v>
+        <v>504</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
       <c r="O67" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6042,50 +6502,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>442</v>
+        <v>504</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>57719</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>125157</v>
+      </c>
+      <c r="C68" t="s">
+        <v>334</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>444</v>
+        <v>506</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>445</v>
+        <v>507</v>
       </c>
       <c r="J68" t="s">
-        <v>446</v>
+        <v>508</v>
       </c>
       <c r="K68" t="s">
-        <v>447</v>
+        <v>509</v>
       </c>
       <c r="L68" t="s">
-        <v>448</v>
+        <v>510</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
       <c r="O68" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6109,50 +6573,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>449</v>
+        <v>511</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>57719</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>634</v>
+      </c>
+      <c r="C69" t="s">
+        <v>512</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>450</v>
+        <v>513</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>451</v>
+        <v>514</v>
       </c>
       <c r="J69" t="s">
-        <v>452</v>
+        <v>515</v>
       </c>
       <c r="K69" t="s">
-        <v>453</v>
+        <v>516</v>
       </c>
       <c r="L69" t="s">
-        <v>454</v>
+        <v>517</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>455</v>
+        <v>518</v>
       </c>
       <c r="O69" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6176,50 +6644,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>454</v>
+        <v>517</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>57719</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>125176</v>
+      </c>
+      <c r="C70" t="s">
+        <v>519</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>456</v>
+        <v>520</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>457</v>
+        <v>521</v>
       </c>
       <c r="J70" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="K70" t="s">
-        <v>459</v>
+        <v>523</v>
       </c>
       <c r="L70" t="s">
-        <v>460</v>
+        <v>524</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="O70" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6243,41 +6715,45 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>462</v>
+        <v>526</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>57719</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>125177</v>
+      </c>
+      <c r="C71" t="s">
+        <v>527</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>463</v>
+        <v>528</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="J71" t="s">
-        <v>465</v>
+        <v>530</v>
       </c>
       <c r="K71" t="s">
-        <v>466</v>
+        <v>531</v>
       </c>
       <c r="L71" t="s">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
@@ -6306,50 +6782,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>468</v>
+        <v>533</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>57719</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>125178</v>
+      </c>
+      <c r="C72" t="s">
+        <v>534</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>469</v>
+        <v>535</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>470</v>
+        <v>536</v>
       </c>
       <c r="J72" t="s">
-        <v>471</v>
+        <v>537</v>
       </c>
       <c r="K72" t="s">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="L72" t="s">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="O72" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6373,50 +6853,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>475</v>
+        <v>541</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>57719</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>125179</v>
+      </c>
+      <c r="C73" t="s">
+        <v>542</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>476</v>
+        <v>543</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>477</v>
+        <v>544</v>
       </c>
       <c r="J73" t="s">
-        <v>478</v>
+        <v>545</v>
       </c>
       <c r="K73" t="s">
-        <v>479</v>
+        <v>546</v>
       </c>
       <c r="L73" t="s">
-        <v>480</v>
+        <v>547</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>481</v>
+        <v>548</v>
       </c>
       <c r="O73" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -6432,41 +6916,45 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>482</v>
+        <v>549</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>57719</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>125180</v>
+      </c>
+      <c r="C74" t="s">
+        <v>550</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>483</v>
+        <v>551</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>484</v>
+        <v>552</v>
       </c>
       <c r="J74" t="s">
-        <v>485</v>
+        <v>553</v>
       </c>
       <c r="K74" t="s">
-        <v>486</v>
+        <v>554</v>
       </c>
       <c r="L74" t="s">
-        <v>487</v>
+        <v>555</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
@@ -6489,7 +6977,7 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>488</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_89.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_89.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="495">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,39 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Monica R</t>
-  </si>
-  <si>
-    <t>05/28/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r592018644-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
+  </si>
+  <si>
+    <t>55475</t>
+  </si>
+  <si>
+    <t>1158782</t>
+  </si>
+  <si>
+    <t>592018644</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>Comfortable bed, decent breakfast and really nice employees</t>
+  </si>
+  <si>
+    <t>Went down to visit my son and daughter in law . I didn't want to impose on the newlyweds so i stayed here, just a 8 min drive from their house.  I've stuck with the Comfort Suites name for years and once again I wasn't disappointed. Best bang for your buck! We had the hot tub and pool to ourselves for hours.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r574980542-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
-    <t>55475</t>
-  </si>
-  <si>
-    <t>1158782</t>
-  </si>
-  <si>
     <t>574980542</t>
   </si>
   <si>
@@ -183,9 +201,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>Karen H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r571390129-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -204,9 +219,6 @@
     <t>Waited 20 minutes for check-in, with reservation. Got read the rules and regulations. I thought, "Not my first time at the rodeo and your printer is not my problem, Rusty. Just give me a card key." We were tired.Room had a fridge, micro and coffee maker. What passes for a coffee maker is ludicrous! It's a little thing with no carafe, and pouches for 4-6 oz  paper cups. Naw! Just wait 'til 5:30 and get coffee in the breakfast room, or the Circle K. The coffee maker has an option for "strong". Not bad.Breakfast is cereal, muffins, toast, waffles, mini-kolache/danish, pre-cooked quasi fried/steamed hard eggs, 1/2 dozen boiled eggs, sausage links, milk, yogurt, oats, almonds and raisins. I would be happy to make my own coffee with a mini coffee maker! Busload of kids from Sam Rayburn ISD on our second day. I told them they were loud and they took over the pool. We left at 6 pm.I don't appreciate having a room of teens booked next to us. "Guest laundry" on the 2nd floor only had an ice machine.More</t>
   </si>
   <si>
-    <t>srgauger</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r566049236-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -229,9 +241,6 @@
   </si>
   <si>
     <t>Unpleasant stay from start to finish.  Waited 20 minutes at front desk to check in.  NO ONE even around despite several of us waiting and calling out.  Got in the room and phone was out of order and not even getting a dial tone.  Tried calling the front desk via cell phone because TV not working.  No one ever answered the phone on 6 tries to the front desk.  Sofa in room was soiled with some kind of oil and filthy.  Public bathroom on first floor was filled with trash on the floor and the floor had standing water in puddles.  NOT up to Comfort Suites standards in any respect.  On check out, again, no one available at front desk.  Won’t be back.  More</t>
-  </si>
-  <si>
-    <t>GoGoLeslie</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r547949741-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
@@ -269,9 +278,6 @@
 There was more, but...If you are about to book, call them first and make sure their "remodel" is over. When I pulled in I felt like I was pulling into a scary movie.  Debris was leaning &amp; pushed up all along the front of the place, the parking lot was super sparse.Walking in was worse...furniture was PILED on top of more furniture.  And it smelled like horrible chemicals or really cheap cleaner.  The breakfast area chairs were piled all over, refrigerator removed and on top of a table.  This was I guess being deep cleaned but the smell of the cleaner was so strong that my mouth went instantly dry.Once I muddled past the mess (the lounge area had sofas piled onto eachother also), I side stepped a lot of white drywall mess or something all along the floors.  Got up to my room and felt very uncertain.  And that SMELL was still there...like it's everywhere.Once into the room I could barely get my suitecase through.  The sofa was at a horrible angle that took up a LOT of space, but had to be that way due to the odd triangle obstruction of a wall it was on.When I realized I couldn't escape the chemical smell, I was out.  The room was as bad as it was downstairs.  Like they tried to cover another issue or have extremely bad judgement when it comes to cleaning.There was more, but you get the point.  I felt bad for the girl at the desk..she was nice.I have yet to receive my credit back onto my card either.  I was told that a manager would refund me...no offer of a refund receipt or to speak to the manager.  When I asked for a receipt or something that showed I'd get a refund, I was told it can't be done.  I may have to fight this w/ my card company.More</t>
   </si>
   <si>
-    <t>terry0012015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r539153304-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -293,9 +299,6 @@
     <t>We stay at this hotel all the time, the last two visits has not been up to par of what we’re use. Couldn’t wait to get into the hot tub to relax after a day of activity’s just to hop in and it was luke warm. I asked the desk clerk to please turn up the temperature on it and was told she couldn’t do anything that only the pool guy can do that. Now I know better then that. We had this issue a few years ago at this hotel and the clerk went right in and took care of the situation, This hotel is also going down hill on cleaning the carpets, much need of a good vacuum, On a good note breakfast was great More</t>
   </si>
   <si>
-    <t>Mike H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r530586593-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -314,12 +317,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>gabcar66</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r510740713-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -336,9 +333,6 @@
   </si>
   <si>
     <t>July 2017</t>
-  </si>
-  <si>
-    <t>RSpan2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r505589611-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
@@ -365,9 +359,6 @@
 Biggest issue was when I tried to use the hair dryer in the bathroom. It was very loud and within 30 seconds of turning it on, it started smoking and got very hot which caused the room to smell like smoke for a few hours. I unplugged it and called the front desk to report the issue. They said they would make a note to replace it the next day. At check-out the next morning, I tried to remind them since we were afraid it would catch on fire, but after waiting close to five minutes for someone to come to the desk, I gave up and just left our keys. Overall, a good place to...We stayed here two nights over a July weekend. The rooms are a nice size and the a/c works well which is a huge plus during the heat of a Texas summer. Bed was comfortable but a little on the hard side. Room appeared clean and bathroom was standard size for a Comfort Inn with good water pressure in the shower. The front desk manager was very friendly at check-in. Indoor pool is very small and was extremely cold the night we used it. Luckily no one else was at the pool when we got there, but two families arrived later and it became very crowded. Breakfast was standard for this type of hotel but was replenished regularly so that is a big plus.Biggest issue was when I tried to use the hair dryer in the bathroom. It was very loud and within 30 seconds of turning it on, it started smoking and got very hot which caused the room to smell like smoke for a few hours. I unplugged it and called the front desk to report the issue. They said they would make a note to replace it the next day. At check-out the next morning, I tried to remind them since we were afraid it would catch on fire, but after waiting close to five minutes for someone to come to the desk, I gave up and just left our keys. Overall, a good place to stay when in the area and will consider staying again since it is close to family we were visiting.More</t>
   </si>
   <si>
-    <t>river3450</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r505565461-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -383,9 +374,6 @@
     <t>From all appearances this seemed like a nice hotel. I checked in and everything in the room seemed fine, but I didn't really look around too well. After a couple of hours I decided to take a shower because I was heading out for dinner. I got in the shower and saw two used bars of soap. I immediately began to question if the room had be cleaned properly. I got out and went to the front desk to speak with a manager. I was told there was no manager on duty. The lady at the front desk did offer to move me to another room. I declined because I felt like if my room had not been cleaned properly, why would I expect that the next one would be clean? I felt it better for myself to stay at another hotel. I called mangement the next day and was told I would not receive any type of prorated refund. The manager told me she could only add points to my privileges account. I don't feel this is a proper way to treat a loyal rewards member. I also think it is bad management because I had to call the hotel to speak with the manager late the next day rather than management call me back after they found out about the problem. I would not stay here if you want to be treated well as a guest by management...From all appearances this seemed like a nice hotel. I checked in and everything in the room seemed fine, but I didn't really look around too well. After a couple of hours I decided to take a shower because I was heading out for dinner. I got in the shower and saw two used bars of soap. I immediately began to question if the room had be cleaned properly. I got out and went to the front desk to speak with a manager. I was told there was no manager on duty. The lady at the front desk did offer to move me to another room. I declined because I felt like if my room had not been cleaned properly, why would I expect that the next one would be clean? I felt it better for myself to stay at another hotel. I called mangement the next day and was told I would not receive any type of prorated refund. The manager told me she could only add points to my privileges account. I don't feel this is a proper way to treat a loyal rewards member. I also think it is bad management because I had to call the hotel to speak with the manager late the next day rather than management call me back after they found out about the problem. I would not stay here if you want to be treated well as a guest by management that appreciates that you chose to stay at their hotel. More</t>
   </si>
   <si>
-    <t>Don49680</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r494401663-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -407,9 +395,6 @@
     <t>As Choice Hotels members, we stay at a lot of Comfort Suites.  This one is very nice but when we checked in (around 4pm on a Monday), it would have been nice to be greeted, smiled at, asked if they could do anything for us....you know....make you feel like you are a valued customer not just a paying overnight guest.  Hopefully it was just this one desk clerk (a young female) and not the attitude of the place.  It is a 4 story structure that is just off I-20 with a service station/convenience store and Cracker Barrel across the side street.  The entire place is clean, neat and well kept.  Our room was a standard Comfort Suites 'suite' (bed or beds and sofa sleeper), modern clean bathroom.  The pool was nice and the hot tub worked well.  There is also a fitness center with a treadmill, eliptical, bike and hand weights and a universal weight machine and all were in working order.  Pool is open till 10pm and the fitness room 11pm.  This is part of a 21 day road trip for us and our 3rd night on the road in a Comfort Suites (2 nights ago Crossville TN and last night Forrest City AR.  Both establishments met us with smiles and pleasant conversation and both facilities were sold out.  In the two previous Comfort Suites, our room and keys were already processed for us and waiting at the desk...As Choice Hotels members, we stay at a lot of Comfort Suites.  This one is very nice but when we checked in (around 4pm on a Monday), it would have been nice to be greeted, smiled at, asked if they could do anything for us....you know....make you feel like you are a valued customer not just a paying overnight guest.  Hopefully it was just this one desk clerk (a young female) and not the attitude of the place.  It is a 4 story structure that is just off I-20 with a service station/convenience store and Cracker Barrel across the side street.  The entire place is clean, neat and well kept.  Our room was a standard Comfort Suites 'suite' (bed or beds and sofa sleeper), modern clean bathroom.  The pool was nice and the hot tub worked well.  There is also a fitness center with a treadmill, eliptical, bike and hand weights and a universal weight machine and all were in working order.  Pool is open till 10pm and the fitness room 11pm.  This is part of a 21 day road trip for us and our 3rd night on the road in a Comfort Suites (2 nights ago Crossville TN and last night Forrest City AR.  Both establishments met us with smiles and pleasant conversation and both facilities were sold out.  In the two previous Comfort Suites, our room and keys were already processed for us and waiting at the desk (these are Choice Privilages Points free nights).  This particular Comfort Suites had nothing ready at the desk, no smile, no greeting and there are very few guests staying.  As I started out this review, this is a nice facility but they need to work on their customer service!  WiFi seems adequate and the breakfast is the typical hot and cold items.More</t>
   </si>
   <si>
-    <t>Pat V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r475421848-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -431,9 +416,6 @@
     <t>I just got home from a 4 night stay here, and here's what I have to say about this place. First and foremost,  I will say that the 3 ladies who I encountered here were very friendly, and I haven't a single complaint about the service I was provided by them. I would also complement the cleaning lady on my gloor, as I always had fresh sheets and my room was gone over daily.  However,  where my complaints begin are in the overall upkeep of this hotel. The carpets are dirty to a point where they make you socks smell like cat urine.  They need some serious shampooing or need to be changed. Also, the elevators and hallways could use some love too.  I wouldn't say this is off the list of places to stay, but it's rapidly approaching it. More</t>
   </si>
   <si>
-    <t>Tommie A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r473875105-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -452,9 +434,6 @@
     <t>My first piece of advice is to always book online. The prices were about $20 more at the actual hotel than online. The clerk at the front desk was less than friendly. I chose the king suite with a kitchen and my parents had a double queen as this is all they had available. My parents room was identical with the exception obviously of the kitchen and beds. I wish I had chose her room. The rooms were clean regardless of the outdated furnishings. Overall my room was comfortable. My issue was the hood over the range. Its was windy this particular weekend and there seems to have been something flapping in the wind that was connected to the hood and echoed out all day and all night. Really made it difficult to sleep. They need a resolution for that immediately. I would stay again but I would not choose a room with a kitchen. I was in Room 216 on the second floor. I opted out of the free breakfast as I rarely find the free breakfasts to be any good. More</t>
   </si>
   <si>
-    <t>Treadman46</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r464404997-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -494,9 +473,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t>MindiSue</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r444282286-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -521,9 +497,6 @@
     <t>The hotel property itself is very clean and neat, and the hotel has easy access to Dallas and Ft Worth.  There is also a Cracker Barrel restaurant that is just a short walk away.  The desk clerk was very friendly and checked me in quickly.  The room was very spacious, with a seating area that was set at an angle so that, even if someone were asleep, the lights in the seating area would not disturb them.  The room and bathroom were very clean and there was a more than adequate supply of towels and washcloths.  Breakfast included a wide assortment of choices including eggs, sausages, and waffles.  I was very pleased with my stay and would definitely stay here again.More</t>
   </si>
   <si>
-    <t>casmith_93035</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r439310966-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -560,9 +533,6 @@
     <t xml:space="preserve">Hotel was clean with modern new looking or well maintained decor. Lobby looked far more grand in person then in pictures. Room was nice comfortable and quiet.we stayed in a king room and couch had s full sized pull out bet. Breakfast was nice. Loved the heated indoor pool only wish the jacuzzi wasn't out of service.cookies and bananas lobby upon arrival with water </t>
   </si>
   <si>
-    <t>Jodie V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r425287315-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -584,9 +554,6 @@
     <t>Stayed here for two nights for a nearby wedding.  At check-in, they had complimentary citrus water and cookies, which we did not take advantage of at the time. However, on the day we were checking out, my boyfriend went to get some of the citrus water and was told that it was just for guests that were arriving.  We stayed on the first floor, which was convenient and those rooms had very tall ceilings which made the room seem very large.  Looking at the outside of the building, it was clear that only the first floor rooms had these tall of ceilings.  The room was nice with a mini-fridge, microwave, and small sitting area with a couch (I think it was a fold out, too).  The bed was large and comfortable.  The bathroom had dimmer lighting than I liked, especially for a bathroom (and my boyfriend agreed - and he's not in there trying to put on make-up).  The position of the full length mirror was odd and you really couldn't stand in front of it to view yourself fully.  The hotel is a pet friendly hotel and there was damage on the inside of the bathroom door frame from a dog (looked like it had been chewed in a couple of places).  We did use the hot tub and pool to relax, and it was nice to be able to turn on the jets/bubbles in the hot tub.  I...Stayed here for two nights for a nearby wedding.  At check-in, they had complimentary citrus water and cookies, which we did not take advantage of at the time. However, on the day we were checking out, my boyfriend went to get some of the citrus water and was told that it was just for guests that were arriving.  We stayed on the first floor, which was convenient and those rooms had very tall ceilings which made the room seem very large.  Looking at the outside of the building, it was clear that only the first floor rooms had these tall of ceilings.  The room was nice with a mini-fridge, microwave, and small sitting area with a couch (I think it was a fold out, too).  The bed was large and comfortable.  The bathroom had dimmer lighting than I liked, especially for a bathroom (and my boyfriend agreed - and he's not in there trying to put on make-up).  The position of the full length mirror was odd and you really couldn't stand in front of it to view yourself fully.  The hotel is a pet friendly hotel and there was damage on the inside of the bathroom door frame from a dog (looked like it had been chewed in a couple of places).  We did use the hot tub and pool to relax, and it was nice to be able to turn on the jets/bubbles in the hot tub.  I just wish they didn't have "pool hours" because we really wanted to use the hot tub after the wedding, but since it was almost midnight, the doors were locked.  There is plenty of parking available and the location was good for us.  It's also right next to Crackle Barrel, which was very convenient for us (we just walked there).More</t>
   </si>
   <si>
-    <t>Louise M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r419289026-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -602,9 +569,6 @@
     <t>Room was very big.  It was very clean; bed was comfortable.  Location very convenient for our purposes.  Will stay again.  The very first time we stayed, the breakfast was less than we would have liked.  That was in February 2016.  But whatever was going g on then has been fixed because the last two times the breakfast has been good.  Workers very courteous.</t>
   </si>
   <si>
-    <t>lovehazeltraveling</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r400631721-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -626,9 +590,6 @@
     <t>The graveyard front desk lady is wonderfully sweet and was a the perfect  person for my family to arrive to after driving 6 hours after we'd had a long work day. The room was updated and the large bed was very comfortable, but the couch bed had dirty linens that were covered in crumbs. The same front desk lady immediately fixed the issue and our night was just as peaceful as it was comfortable. The breakfast is a standard hotel breakfast but with minimal options. The greek yogurt was a week past due on its date, the waffles liquid was really thin, and we left hungry. I will say this though the breakfast lady is very sweet. The hotel has a corporate rule to have Fox News loud in the breakfast room, which she turned down, but the last thing my 5 or 12 yr needs to watch in the am is death so that should be rethought out. The pool while small was amazing and we all really enjoyed it. The morning desk lady came into the pool and shut off the hot tub moments before we were about to get back in and instructed us to turn it off and on each  time we used it. It was odd. So we dryed off, packed up, and went on the rest of our trip. So to wrap it all up I would stay again bc it is well priced...The graveyard front desk lady is wonderfully sweet and was a the perfect  person for my family to arrive to after driving 6 hours after we'd had a long work day. The room was updated and the large bed was very comfortable, but the couch bed had dirty linens that were covered in crumbs. The same front desk lady immediately fixed the issue and our night was just as peaceful as it was comfortable. The breakfast is a standard hotel breakfast but with minimal options. The greek yogurt was a week past due on its date, the waffles liquid was really thin, and we left hungry. I will say this though the breakfast lady is very sweet. The hotel has a corporate rule to have Fox News loud in the breakfast room, which she turned down, but the last thing my 5 or 12 yr needs to watch in the am is death so that should be rethought out. The pool while small was amazing and we all really enjoyed it. The morning desk lady came into the pool and shut off the hot tub moments before we were about to get back in and instructed us to turn it off and on each  time we used it. It was odd. So we dryed off, packed up, and went on the rest of our trip. So to wrap it all up I would stay again bc it is well priced and the night clerk was so great BUT I would recommend to management to due better housekeeping, spend a little more on breakfast, and not have murder loud and clear first thing in the am and you'd be an amazing hotel!More</t>
   </si>
   <si>
-    <t>Kathryn C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r368708230-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -647,9 +608,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t>Robert R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r347235929-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -671,9 +629,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>glennjam</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r344067057-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -692,9 +647,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>Tracy E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r339275313-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -726,9 +678,6 @@
   </si>
   <si>
     <t>December 2015</t>
-  </si>
-  <si>
-    <t>Lacey M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r329525759-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
@@ -751,9 +700,6 @@
 Breakfast was nicely laid out and the "signature" waffles they herald on their web site are indeed delicious,...Very nice place for a weary traveler to kick back and relax and then get a good night's sleep. The front desk staff were courteous, professional and efficient. The room was tidy, clean, quiet and well organized with a comfortable couch and chair and plenty of desk space to catch up on work. Mini-fridge and microwave both worked fine. The bathroom was sparkling clean. The bed was very comfortable and the assortment of both firm and soft pillows is much appreciated. I used the free Wi-Fi to check news, weather and email and it worked without a hitch for those applications. The climate control also worked promptly and accurately.  The Direct TV signal went out for a little while as a rainstorm blew through but that's Direct TV's weakness, not the hotel's. It's not so easy for some of us to figure out the process to reach the Direct TV channel listing through the remote even with the instructions, especially after a long day's travel - there's a list of the most common basic channels in the hotel information notebook on the desk, it would be an extra-nice touch to have that short-list on a laminated card next to the TV or on the bedside table. (That's not really a complaint, just a suggestion from a tech-savvy but remote-control-impaired and jet-lagged traveler.)Breakfast was nicely laid out and the "signature" waffles they herald on their web site are indeed delicious, light and fluffy. Their coffee was also quite good, and I like being able to choose the strength of the brew in their machine. All in all a well-run hotel with a clean and quiet room to collapse in after an exhausting day, a wonderful mattress and pillows to let you catch up on some much-needed sleep, and a good breakfast to get the next day started. Highly recommend! More</t>
   </si>
   <si>
-    <t>Josh M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r325606540-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -775,9 +721,6 @@
     <t>I travel a lot, and stay in lots of hotels.  While Comfort Suites isn't always the cheapest, they are far from the most expensive and they are pretty much the same from coast to coast.  This property is no exception.  The rooms are clean, roomy and smell clean and fresh.  The property is clean, the parking lot is well lit, and as always the breakfast is great for free hotel breakfast.  As a frequent traveler, I like to travel with my XBOX for the long boring nights in hotel rooms.  This property has newer flat screen tvs with Directv in the room and the ability to connect my XBOX with ease.  They don't have the locked down hospitality TVs where you can change the video inputs.  Long story short, I would stay here again without hesitationMore</t>
   </si>
   <si>
-    <t>1967Yankeesfan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r323529393-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -796,9 +739,6 @@
     <t>I stayed in this hotel for 5 nights. I was up on the 4th floor, right next to the exit at one end of the hall way. The hotel looks to be relatively new, and it is very close to the interstate. I travel a lot and I try to stay at the Choice Hotel Group whenever I can. The front desk staff were polite when I checked in, and that was really the only time I saw them. I came and went via the back door and walking the stairs most of the time. What I did find was that the breakfast was not up to the normal fare for a Comfort Suites. They only offered eggs and sausage cooked the same way every day. In most of the Suites, they vary the hot breakfast from day to day to include different types of eggs, different types of sausage (patties vs. links) and to include biscuits and gravy. This place only offered the egg and links. That is why it only rates 4 stars. Also, the wifi is not so strong on the 4th floor. They need something to boost it.More</t>
   </si>
   <si>
-    <t>John S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r310955784-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -817,9 +757,6 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>Lynn P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r307324499-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -835,9 +772,6 @@
     <t>We needed a bed for the night while in town visiting relatives.  Access to this hotel was so easy and being across the parking lot from Cracker Barrell was an added bonus!  The rooms were clean and the staff was very friendly.  We will definitely stay here again!</t>
   </si>
   <si>
-    <t>Debra E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r298359594-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -856,9 +790,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>jvr975</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r293391702-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -874,9 +805,6 @@
     <t>After one night in another Benbrook motel we were so exhausted from lack of sleep, we fled early morning.  We found the Comfort Inn, were given a warm welcome, a very nice room, and invited to have breakfast.  The bed was so comfortable, the overall atmosphere so pleasurable, I cannot praise them enough..   These people know what they are doing.  They made our stay in Benbrook, which started off so badly, a very happy one.</t>
   </si>
   <si>
-    <t>barry t</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r291875369-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -892,9 +820,6 @@
     <t>This isn't the fanciest place in Fort worth but it sure is clean, friendly and close to I-20 in South Fort Worth. Our air conditioning went out so instead of a second night in the sweltering heat we decided to stay at a hotel. I checked Orbitz and this one came up for a good price so I took it and it was worth it! I would highly recommend it for a place to stay.</t>
   </si>
   <si>
-    <t>Jim N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r269809295-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -916,9 +841,6 @@
     <t>This is a continuation of the post below. We were not able to stay at this hotel because no one was there to let us in the door and check us in. We waited 25 minutes before deciding to find another hotel. Now we are just trying to get our money back. It has been 11 days since that night. After 21 phone calls both to the hotel and the national customer service line I thought we had finally resolved this. We got the required proof in the required form to the required person and were expecting a refund.Instead they charged my card a 2nd time. I am 100% convinced the manager did this on purpose based on our dealings so far. It is really impressive how far someone in the hospitality business is willing to go out of there way to be inhospitable. This should have been a simple as "That shouldn't have happened, we are sorry, here is your money back". Instead they give me excuses about why the desk was left unattended but do not believe that we were ever there. They offer no apology and have not returned our money.More</t>
   </si>
   <si>
-    <t>Melissa N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r268555249-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -934,9 +856,6 @@
     <t>We prepaid for a room.  When we arrived, late at night, no one answered the phone or door.  We were not able to access our room.  We called the corporate office and they were unable to help.  We ended up having to stay at another hotel.  The hotel is presently insisting that we were not there, and refusing to provide us a refund.</t>
   </si>
   <si>
-    <t>Normanjp</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r268173050-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -952,9 +871,6 @@
     <t>The lack of an automatic entry door to the hotel makes the entry very difficult for handicapped persons and for any person pulling a suitcase. In addition, there were no baggage carts close to the entry door. There were located on the first floor, but were difficult to find. The room was spacious and very clean. The ceilings (on the first floor) were unusually high – more than 10 feet high – giving the room an airy and pleasant atmosphere.</t>
   </si>
   <si>
-    <t>Peggy B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r259012361-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -973,9 +889,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>DayTripDude</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r248546362-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -994,9 +907,6 @@
     <t>December 2014</t>
   </si>
   <si>
-    <t>mdmcleod</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r248142623-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1018,9 +928,6 @@
     <t>It is interesting to see that other guests have had a complaint with the management team.  Rusty the General Manager is one of the rudest people I have ever deal with in the hospitality industry, and she seems to revel in that role.  Her customer service skills are not up to standard with a Choice Property.  I tried to book rooms for my parents as a late Christmas gift, she made is so difficult to change dates and was unable to answer questions as to why she wouldn't let me, I ended up cancelling the reservations.  Everyone else I talked to on her staff were great, it must be embarrassing and disappointing to have to work for someone with such vindictive attitude.More</t>
   </si>
   <si>
-    <t>Garry H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r245016841-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1042,9 +949,6 @@
     <t>Where do I start. The property itself is 4 star. The stay was 3 star. Upon arrival, got our key cards and off to the 2nd floor. Neither card will work. Back down stairs, back up stairs and neither new card will work. Back down stairs and a new room on the 3rd floor. back up stairs and only 1 card will work. Am I on candid camera? My wife has lost all patience. She goes in the room and I.....guess what.......head back downstairs. A new card and outside for a smoke. When I get to the third floor, on the 4th or 5th try the card finally works. YEA! Beds and bathroom were great. Wifi pretty much a joke. Next morning a surprise service charge on my bill. Yelp reviewers had warned me about this so I questioned the charge. The clerk removed the charge "just for me and just this one time". The breakfast was the usual Choice Hotels boring. When the problems get worked out, this will be a great place to stay!More</t>
   </si>
   <si>
-    <t>jenkstrojanfan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r238369820-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1066,9 +970,6 @@
     <t>Family live very close to this hotel but that matters not in the future! I WILL NOT be back. Been here several times in past two years. Internet &amp; TV reception leave a lot to desire. Internet is weak, TV STILL has major issues. Cookies were offered as we checked in. Nice. But I had to take last room available when I called on Thursday prior. That's okay getting the Executive Suite if it made me feel special. A couple bottles of water would have been nice. Breakfast was less than typical of this type of lodging. Pretend eggs and cold breakfast burritos. Texas sized waffles were available after long wait.  Coffee was the best thing, very good.Bathroom mirror had a vulgar saying on it. Only visible after steamed after hot shower. Maid needs to clean mirror Daily! One light bulb burnt out in bathroom, too.Noise wasn't a factor until a little one got up directly above our room. Not a big deal, just saying it to make others aware.More</t>
   </si>
   <si>
-    <t>Rboze</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r238123191-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1084,9 +985,6 @@
     <t xml:space="preserve">Upon check-in the staff was very friendly and courteous. Offered a free cookie and bottle of water.  Check-in was very quick.  The room was probably one of the cleanest and most well kept rooms I've ever stayed in.  Receptionist called the room a few minutes after I got to the room to ensure the room was up to my expectations.  Free wifi was fast and great.  Comfortable bed &amp; pillows made for a great nights sleep.  Would definitely stay here again. </t>
   </si>
   <si>
-    <t>CruisinDave1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r236207934-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1102,9 +1000,6 @@
     <t>Stayed here two nights while home being worked on. Great service. The room was clean and quiet. Breakfast was typical Continental with Texas waffle. The only problem was no water the second day but was turned on quickly. Not the hotels fault.</t>
   </si>
   <si>
-    <t>noplacetogo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r232856435-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1120,9 +1015,6 @@
     <t>Very good staff at desk upon check in. Room was clean. Lighting seemed to be a little dark, not hiding anything but a little too dim. Breakfast was the usual fare, good assortment of hot, cold items. Fresh fruit, yogurt and beverages. They did run out of napkins and had to resort to paper towels. Overall would definitely stay here again. Located within walking distance to a Cracker Barrel.</t>
   </si>
   <si>
-    <t>Janice B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r232136776-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1141,9 +1033,6 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>alison_c1304</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r215979816-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1165,9 +1054,6 @@
     <t>Our room was clean and the breakfast was plentiful.  There was a huge wedding party there that was eating the food as fast as the server could put it out.   That was a problem but not the hotel's fault.  The staff was working hard to try to keep the food stocked.  The WiFi in our room was horrible.  When it did connect it never stayed connected long.  The indoor pool was clean and the water was warm.  The pool room was HOT.  It was uncomfortable for the people not swimming but worth it to wear out the kiddos before bedtime.  All the staff we talked to were nice.  Hotel is right off the highway and super easy to get to.  Be warned there is not a big tall sign that you can see from the highway.  We drove around in circles a few times before we found it.  The hotel is right next door to the Best Western... it does have a sign!More</t>
   </si>
   <si>
-    <t>amnesiac1c</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r215896371-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1180,9 +1066,6 @@
     <t>Stayed here for Peach Pedal. Last year we stayed at the Best Western next door &amp; this was far superior. Updated, clean, great breakfast. Only problem was glitchy keycard access to building exterior door.</t>
   </si>
   <si>
-    <t>Ashley D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r210355712-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1204,9 +1087,6 @@
     <t>I stayed 3 nights at this hotel in early June. The first two nights were okay. The third night was awful. I was traveling with my children and the person in the room next to us began to smoke (this is a non-smoking hotel) and it came pouring into our room. I called the front desk to see what they could do, basically we ended up moving to a different room. The new room was filthy with dog food on the floor and pet hair all over. I complained to the manager who could care less. She stated it's only recommended that people cannot smoke, not mandatory. Do not stay at this hotel!More</t>
   </si>
   <si>
-    <t>Deb F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r207562695-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1225,9 +1105,6 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t>Raymond M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r207393283-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1246,9 +1123,6 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t>Tsnrc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r202150534-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1267,9 +1141,6 @@
     <t>I'm staying here on a business trip and the internet (wireless portion) in this hotel has been partially operating since the night I checked in--4/6/2014. I can sometimes log on and most times not log on. I've called the Internet help line on at least 8 different occasions. I've been told ATT has changed a switch and programmed this and that and the results are still the same. I've asked to speak to the manager about this issue on three different occasions and the response I get is she isn't here. When asked when is she here the response is, "not very often--she has other properties to manage".  This hotel could be a very nice property if the manager actually showed up to work occasionally and took care of issues.More</t>
   </si>
   <si>
-    <t>Travelerfrank79</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r198000890-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1291,9 +1162,6 @@
     <t>Benbrook TX is a great little city on I-20 so I chose this hotel due to location and pricing.  The reviews seemed good.  At 9:30 on the first morning of my 4 day stay i get this call from the front desk saying that if I want my room cleaned that day i need to get up and leave the room!  The front desk clerk was snippy toward me when I arrived, though I had reservations.  She also made me initial on the check-in form that there were no pets allowed but I saw at least 5 dogs in the hotel.  The breakfasts were mediocre and sparse.  Be careful around the elevator as there is an indoor pool and that area stayed wet my entire stay. The rates are good but the staff needs to be trained.More</t>
   </si>
   <si>
-    <t>Citygirl124</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r183411502-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1309,9 +1177,6 @@
     <t xml:space="preserve">My family, consisting of my 2 kids, my husband, and I, stayed at this hotel just for a little "getaway" for 2 nights. The stay was great. The breakfast was good and fresh. The rooms and beds were comfy. I loved the location of the hotel, as it's right by cracker barrel, a long time favorite. We will definitely be staying again. </t>
   </si>
   <si>
-    <t>Beatrice F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r183281534-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1327,9 +1192,6 @@
     <t>Only a few steps from convenience store and cracker barrel.  Comfy bed, clean bathroom.  Ample parking, but huge pieces o off glass in parking lot. Faux news on in lobby but they changed it when I asked. Only 15 pet fee, a lot of room nearby to take dog out. Staff not that friendly.  Good value.</t>
   </si>
   <si>
-    <t>Teri R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r182723609-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1345,9 +1207,6 @@
     <t>Nice hotel with large suite. Friendly staff. High ceilings and comfy couch with coffee table for viewing the football game. Bed very comfortable with nice shower enclosure and large fluffy towels. Will definitely stay again.</t>
   </si>
   <si>
-    <t>ChipDThompson</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r172142645-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1366,9 +1225,6 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t>DeniseYRoss</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r170617604-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1384,9 +1240,6 @@
     <t>On a road trip, comfort and familiarity are a must in a hotel. We always opt for Comfort Suites because:1) they are cheap but the top of the line for the Choice Hotel brand2) the beds are comfortable. Just to compare, we own a Tempurpedic at home3) they come with a sleeper sofa for an extra bed for the kids4) they allow dogs for a small fee. ( usually $15)</t>
   </si>
   <si>
-    <t>inteller</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r168166779-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1405,9 +1258,6 @@
     <t>I checked into this place at 6 after a long drive.  Immediately after checking in I noticed what appeared to be a long term stay family across the way with screaming kids and yelling adults.  I went to dinner and came back and it was still loud.  I called and was accommodated to another room on the top floor.  This room had me next to a crying baby and women were loitering in the hallways.  This room did not have any privacy/darkening curtains and I had to clamp the shams together using clothes hangers.  Cheap Wal-Mart TV cast off a bright light that illuminated the whole room in the dark, had to cover that up.More</t>
   </si>
   <si>
-    <t>Rick S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r166969125-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1423,9 +1273,6 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>Greekprof7</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r161232538-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1462,9 +1309,6 @@
     <t>My last review of this facility was less than favorable. I went back for an overnight stay a couple months ago. I was greeted by my name! The review must have gotten the managers attention for the desk clerk (think she was night manager, too) was a nice as you could ever ask for. She put me into a nice suite and followed up with a phone call later to insure I was pleased.I must say the TV "still" has issues. The Dish doesn't pick up the local channels very well. But this time I was there to sleep, not watch TV. Bed was extremely comfortable. The person in-charge of the Breakfast bar was doing an excellent job, keeping all foods warm and presentable.More</t>
   </si>
   <si>
-    <t>Fly4Ever23</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r153743340-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1480,9 +1324,6 @@
     <t>My family and I have stayed here for 2 nights. It was a great time! We went on a little mini vacation. The pool and jaccuzi was very nice, breakfast was well put-also loved it because it was a very bright big room and not too many people, the rooms are average but I also love the little counter extension behind the couch. The staff were super friendly (we were greeted by a nice lady named Rusty). I totally reccomend you and your family to stay here!</t>
   </si>
   <si>
-    <t>katncol</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r153145092-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1498,9 +1339,6 @@
     <t>Really enjoyed our stay. Very clean and convenient to TCU area. Super-comfortable king bed but our teenager found the fold-out sofa bed a little uncomfortable. Breakfast looked great but we were running short on time and only had juice and coffee. Pleasant desk clerk.</t>
   </si>
   <si>
-    <t>dc45t</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r151125719-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1516,9 +1354,6 @@
     <t>Very friendly check-in clerk as was the morning clerk.  Room was clean and quiet.  Bed was comfortable with big, fluffy pillows that really helped in getting a good night's sleep.  There were about 4 of them on the king-sized bed!  Bathroom was extremely clean with plenty of soft, clean towels.  The morning breakfast was alright, nothing real special but it was available for guests.  The coffee from the breakfast bar, as well as the pot in the room, was really bad but drinkable.  Overall, this is a nice place to get a good rest in a comfortable, clean and quiet setting.  Will stay again (but bring my own coffee)!</t>
   </si>
   <si>
-    <t>Jay92</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r150555533-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1537,9 +1372,6 @@
     <t>I was expecting a little more from a Comfort Suites branded hotel. The room wasn't much bigger than a standard hotel room. It had a partial wall between the bed and the small couch...not what I would call a "suite". The bed was pretty stiff...it reminded me of the quality of bed you would get at a cheap rate budget hotel.  I did appreciate the cleanliness of the room. The breakfast was adequate with the usual pastries, waffles, and did include link sausage. Overall, it wasn't a bad stay but for the price of this room, I think I could find somewhere a little nicer next time I visit the DFW area.More</t>
   </si>
   <si>
-    <t>John L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r148392417-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1576,9 +1408,6 @@
     <t>After fighting rain all day on my drive from Jenks, Ok, I was ready to settle in for a good nights rest and watch DA BEARS play against the Texans. OMGosh! A football fans worst nightmare! Cable issues with local TV channels. TV was horrible. It made my Bears Lose, too!You say and I agree, big deal! BUT thats why I choose to stay here, to watch that game. Being of the age one tends to forget things, I remembered that when I stayed here last summer, the TV was the same! After talking to Manager this morning, she was aware it has been this way for years. Room was very nice. Bed extremely comfortable. Bed is typical "make your own waffles" and other dry foods. Like I said, typical.Most of staff were excellent. Senior rate was appreciated, too. Tina was specially helpful when I checked in.More</t>
   </si>
   <si>
-    <t>Robert G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r143805804-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1597,9 +1426,6 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>pinlow</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r129790060-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1619,9 +1445,6 @@
   </si>
   <si>
     <t>I stayed a few miles farther from my grandkids in Burleson, TX because of the pictures and comments on this hotel. I am disabled and on oxygen. My granddaughter came along to help me with my stuff.The front desk clerk was very friendly and ask if the room was OK for me and if I needed anything. She told me about the ice machines and breakfast hours. The loby, breakfast area, room and pool were all done very modern with Texas flair. I love all the natural rock. Comfortable bed, living area with sofa, flat screen TV, granite bath, fridge, coffe pot and microwave. AC I could turn as low as I wanted. Even some tree top views. Love the restaurants and gas store being so close too. Only a few minutes from anything off south or west 820.More</t>
-  </si>
-  <si>
-    <t>Jhand2</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r129432181-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
@@ -1650,9 +1473,6 @@
   In conclusion, I would recommend this hotel to others because of the quiet atmosphere, and quality upkeep of the facility.  I will probably be returning here again shortly because it close...This is my second time to staying at this Comfort Suites Location during the past month.  I was very impressed with the service that received when I walked into the door to register. The two individuals working the front were very polite and helpful at letting me know what was in the area.I choose the specific hotel because I have two children who love to swim and this hotel has an indoor pool.  And I can truly say that it is one nicer indoor pools that I have seen. It is a large "L" Shape pool.  The water was very clean and fairly warm.The double queen bed room that we stayed in was very large.  I can tell the individual that cleaned this room must of spent some quality time cleaning because every thing seemed brand new looking.  I thought the bathroom was well maintained.  The bed was very soft.  I had a difficult time checking out because I did not want to leave this behind.The breakfast had a good variety in the morning.. Eggs. Pigs in blanket, sausage, waffles, danishes, and plenty of other things.  In addition, there was a hotel employee always present in the room refilling the breakfast items that were becoming low.  In conclusion, I would recommend this hotel to others because of the quiet atmosphere, and quality upkeep of the facility.  I will probably be returning here again shortly because it close to the hospital that my grandfather is staying at.  Even through the pain of his sickness, this hotel has provided my family and I some comfort.  John Hand (Waco, Tx) More</t>
   </si>
   <si>
-    <t>MrsKLM3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r127444859-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1674,9 +1494,6 @@
     <t>I was very impressed with this hotel all around!  The room was clean and nice.  We stayed for 5 days and the rate was very reasonable.  Very good customer service and ladies were pleasant. Our room was cleaned and restocked with fresh towels each day when we got back.  Hotel is within walking distance of Circle K and Cracker Barrel. The first night we stayed, we forgot to take down our GPS and radar detector and the next morning, we had a reminder from the local sheriff to remove it; it was nice to have someone patrolling the area.  Would definitely stay here again, however not much to do in TX on this side of town!More</t>
   </si>
   <si>
-    <t>K7ISS</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r86187869-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -1696,9 +1513,6 @@
   </si>
   <si>
     <t>I had a reservation where we found out that we had to back out the day before going, called hotel to cancel just by a couple of hours after their 24 hour cut off to cancel and would not cancel. Keeping in mind that this is the weekend of the NASCAR race in Texas and sure to be able to sell that room that I had to cancel on.  I attempted to give them 20 hours notice and still my credit card was tagged and declined, or it would have probably have taken. After 3 calls and 3 staff members very unpleasant to speak with. If customer service is not good on phone I can only wonder what it is like in the hotel. Great pictures of the hotel at least.More</t>
-  </si>
-  <si>
-    <t>JeannaBanana85</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d1158782-r40132301-Comfort_Suites_Benbrook-Benbrook_Texas.html</t>
@@ -1715,12 +1529,12 @@
   <si>
     <t>Management at the Comfort Suites of Benbrook, TX is horrendous.  
 This stay was supposed to be my second stay with their hotel.  The first time I stayed with Comfort Suites Benbrook was in June 2009.  I had no problem checking in or with my stay; however, after checking out of the hotel and returning to my car, a member of management ran out of the hotel towards me and rudely told me to stop and then proceeded to accuse me of putting cigarette burns on their 2 comforters in my hotel room.  I informed her that I did not smoke and was in fact allergic to cigarette smoke, and that those burn marks were there when I checked into the room.  Management then asked why I did not report the marks, and I told her that I've worked for a Comfort Inn for 2 years and did not want to be one of those petty customers who complains about every little thing.  She tells me that they will investigate it further and may charge my credit card for the damages.  I was getting upset, but tried to politely inform her that if charges appear on my credit card, I will call Corporate and file a definite complaint against her and her hotel.  (No charges were filed on my credit card).
-Thinking I could give this hotel a second chance to not be so rude, I booked a reservation with this...Management at the Comfort Suites of Benbrook, TX is horrendous.  This stay was supposed to be my second stay with their hotel.  The first time I stayed with Comfort Suites Benbrook was in June 2009.  I had no problem checking in or with my stay; however, after checking out of the hotel and returning to my car, a member of management ran out of the hotel towards me and rudely told me to stop and then proceeded to accuse me of putting cigarette burns on their 2 comforters in my hotel room.  I informed her that I did not smoke and was in fact allergic to cigarette smoke, and that those burn marks were there when I checked into the room.  Management then asked why I did not report the marks, and I told her that I've worked for a Comfort Inn for 2 years and did not want to be one of those petty customers who complains about every little thing.  She tells me that they will investigate it further and may charge my credit card for the damages.  I was getting upset, but tried to politely inform her that if charges appear on my credit card, I will call Corporate and file a definite complaint against her and her hotel.  (No charges were filed on my credit card).Thinking I could give this hotel a second chance to not be so rude, I booked a reservation with this hotel yet again for this last weekend while my Mother and I were visiting friends in Fort Worth, TX.As an employee of Choice Hotels, I am allowed discounted rates at Choice properties.  I however forgot my pass in my car as we took my Mom's car to Fort Worth.  I tried to get a hold of the hotel to see if I could have my boss fax them a copy of the employee card since other Choice hotels have allowed me to do this in the past and my boss's signature is on it in several locations.  I called 10 times at least and no one in the hotel ever answered.  I called Corporate to make sure I had the right number and they verified that I did.  Well still no answer.  So I called my boss and gave her the fax number and she faxed it for me.We arrive at the hotel late that night as we had been traveling and I inform the young woman of the situation, but because she is a new employee, she informs us that she must call her boss to get the okay.  Her boss immediately starts yelling at the front desk clerk and I then ask to speak to her.  She is on the phone screaming very rudely at me and refuses to allow the fax to be used even though both her and the front desk girl say that all they need is a copy of the card...MoreShow less</t>
+Thinking I could give this hotel a second chance to not be so rude, I booked a reservation with this...Management at the Comfort Suites of Benbrook, TX is horrendous.  This stay was supposed to be my second stay with their hotel.  The first time I stayed with Comfort Suites Benbrook was in June 2009.  I had no problem checking in or with my stay; however, after checking out of the hotel and returning to my car, a member of management ran out of the hotel towards me and rudely told me to stop and then proceeded to accuse me of putting cigarette burns on their 2 comforters in my hotel room.  I informed her that I did not smoke and was in fact allergic to cigarette smoke, and that those burn marks were there when I checked into the room.  Management then asked why I did not report the marks, and I told her that I've worked for a Comfort Inn for 2 years and did not want to be one of those petty customers who complains about every little thing.  She tells me that they will investigate it further and may charge my credit card for the damages.  I was getting upset, but tried to politely inform her that if charges appear on my credit card, I will call Corporate and file a definite complaint against her and her hotel.  (No charges were filed on my credit card).Thinking I could give this hotel a second chance to not be so rude, I booked a reservation with this hotel yet again for this last weekend while my Mother and I were visiting friends in Fort Worth, TX.As an employee of Choice Hotels, I am allowed discounted rates at Choice properties.  I however forgot my pass in my car as we took my Mom's car to Fort Worth.  I tried to get a hold of the hotel to see if I could have my boss fax them a copy of the employee card since other Choice hotels have allowed me to do this in the past and my boss's signature is on it in several locations.  I called 10 times at least and no one in the hotel ever answered.  I called Corporate to make sure I had the right number and they verified that I did.  Well still no answer.  So I called my boss and gave her the fax number and she faxed it for me.We arrive at the hotel late that night as we had been traveling and I inform the young woman of the situation, but because she is a new employee, she informs us that she must call her boss to get the okay.  Her boss immediately starts yelling at the front desk clerk and I then ask to speak to her.  She is on the phone screaming very rudely at me and refuses to allow the fax to be used even though both her and the front desk girl say that all they need is a copy of the card.  (Is a fax NOT a copy?)  So the boss tells me that I will be forced to pay the regular rate which is more than $60 over my employee rate.  The manager continues yelling at me and I decide to just hand the phone back to the clerk and then my Mother says she would like to discuss things with me outside.I tell my Mom she needs to go back in to make sure they do not charge our credit card as we are very upset and are now refusing to stay at a hotel that treats us so rudely and yells at their guests no matter what the problem is.  So the clerk has to then call her boss again at which point she starts yelling at my Mom and tells her that she can't guarantee that she won't charge the credit card because her general manager is out of town.  My Mom asks who she is speaking with and the woman refuses to give her her name and only says, I'm who is left in charge.  And then the "asst. manager" hangs up on my Mom.  This left my Mom even more upset as she had never been treated so rudely by a hotel in her life.We chose to stay across the street at the Best Western.  Their front desk was very sweet and understanding of the situation and because of our experience was able to knock his rate down by $30 for us.I think that all of you have the right to know that this hotel treats it's guests and employees with extreme disregard and no respect whatsoever.  I would advise you to not stay with this hotel at any point.  Who wants to stay in a hotel as a guest to be accused of destroying hotel property and being yelled at in such a horrendous manner?MoreShow less</t>
   </si>
   <si>
     <t>Management at the Comfort Suites of Benbrook, TX is horrendous.  
 This stay was supposed to be my second stay with their hotel.  The first time I stayed with Comfort Suites Benbrook was in June 2009.  I had no problem checking in or with my stay; however, after checking out of the hotel and returning to my car, a member of management ran out of the hotel towards me and rudely told me to stop and then proceeded to accuse me of putting cigarette burns on their 2 comforters in my hotel room.  I informed her that I did not smoke and was in fact allergic to cigarette smoke, and that those burn marks were there when I checked into the room.  Management then asked why I did not report the marks, and I told her that I've worked for a Comfort Inn for 2 years and did not want to be one of those petty customers who complains about every little thing.  She tells me that they will investigate it further and may charge my credit card for the damages.  I was getting upset, but tried to politely inform her that if charges appear on my credit card, I will call Corporate and file a definite complaint against her and her hotel.  (No charges were filed on my credit card).
-Thinking I could give this hotel a second chance to not be so rude, I booked a reservation with this...Management at the Comfort Suites of Benbrook, TX is horrendous.  This stay was supposed to be my second stay with their hotel.  The first time I stayed with Comfort Suites Benbrook was in June 2009.  I had no problem checking in or with my stay; however, after checking out of the hotel and returning to my car, a member of management ran out of the hotel towards me and rudely told me to stop and then proceeded to accuse me of putting cigarette burns on their 2 comforters in my hotel room.  I informed her that I did not smoke and was in fact allergic to cigarette smoke, and that those burn marks were there when I checked into the room.  Management then asked why I did not report the marks, and I told her that I've worked for a Comfort Inn for 2 years and did not want to be one of those petty customers who complains about every little thing.  She tells me that they will investigate it further and may charge my credit card for the damages.  I was getting upset, but tried to politely inform her that if charges appear on my credit card, I will call Corporate and file a definite complaint against her and her hotel.  (No charges were filed on my credit card).Thinking I could give this hotel a second chance to not be so rude, I booked a reservation with this hotel yet again for this last weekend while my Mother and I were visiting friends in Fort Worth, TX.As an employee of Choice Hotels, I am allowed discounted rates at Choice properties.  I however forgot my pass in my car as we took my Mom's car to Fort Worth.  I tried to get a hold of the hotel to see if I could have my boss fax them a copy of the employee card since other Choice hotels have allowed me to do this in the past and my boss's signature is on it in several locations.  I called 10 times at least and no one in the hotel ever answered.  I called Corporate to make sure I had the right number and they verified that I did.  Well still no answer.  So I called my boss and gave her the fax number and she faxed it for me.We arrive at the hotel late that night as we had been traveling and I inform the young woman of the situation, but because she is a new employee, she informs us that she must call her boss to get the okay.  Her boss immediately starts yelling at the front desk clerk and I then ask to speak to her.  She is on the phone screaming very rudely at me and refuses to allow the fax to be used even though both her and the front desk girl say that all they need is a copy of the card...More</t>
+Thinking I could give this hotel a second chance to not be so rude, I booked a reservation with this...Management at the Comfort Suites of Benbrook, TX is horrendous.  This stay was supposed to be my second stay with their hotel.  The first time I stayed with Comfort Suites Benbrook was in June 2009.  I had no problem checking in or with my stay; however, after checking out of the hotel and returning to my car, a member of management ran out of the hotel towards me and rudely told me to stop and then proceeded to accuse me of putting cigarette burns on their 2 comforters in my hotel room.  I informed her that I did not smoke and was in fact allergic to cigarette smoke, and that those burn marks were there when I checked into the room.  Management then asked why I did not report the marks, and I told her that I've worked for a Comfort Inn for 2 years and did not want to be one of those petty customers who complains about every little thing.  She tells me that they will investigate it further and may charge my credit card for the damages.  I was getting upset, but tried to politely inform her that if charges appear on my credit card, I will call Corporate and file a definite complaint against her and her hotel.  (No charges were filed on my credit card).Thinking I could give this hotel a second chance to not be so rude, I booked a reservation with this hotel yet again for this last weekend while my Mother and I were visiting friends in Fort Worth, TX.As an employee of Choice Hotels, I am allowed discounted rates at Choice properties.  I however forgot my pass in my car as we took my Mom's car to Fort Worth.  I tried to get a hold of the hotel to see if I could have my boss fax them a copy of the employee card since other Choice hotels have allowed me to do this in the past and my boss's signature is on it in several locations.  I called 10 times at least and no one in the hotel ever answered.  I called Corporate to make sure I had the right number and they verified that I did.  Well still no answer.  So I called my boss and gave her the fax number and she faxed it for me.We arrive at the hotel late that night as we had been traveling and I inform the young woman of the situation, but because she is a new employee, she informs us that she must call her boss to get the okay.  Her boss immediately starts yelling at the front desk clerk and I then ask to speak to her.  She is on the phone screaming very rudely at me and refuses to allow the fax to be used even though both her and the front desk girl say that all they need is a copy of the card.  (Is a fax NOT a copy?)  So the boss tells me that I will be forced to pay the regular rate which is more than $60 over my employee rate.  The manager continues yelling at me and I decide to just hand the phone back to the clerk and then my Mother says she would like to discuss things with me outside.I tell my Mom she needs to go back in to make sure they do not charge our credit card as we are very upset and are now refusing to stay at a hotel that treats us so rudely and yells at their guests no matter what the problem is.  So the clerk has to then call her boss again at which point she starts yelling at my Mom and tells her that she can't guarantee that she won't charge the credit card because her general manager is out of town.  My Mom asks who she is speaking with and the woman refuses to give her her name and only says, I'm who is left in charge.  And then the "asst. manager" hangs up on my Mom.  This left my Mom even more upset as she had never been treated so rudely by a hotel in her life.We chose to stay across the street at the Best Western.  Their front desk was very sweet and understanding of the situation and because of our experience was able to knock his rate down by $30 for us.I think that all of you have the right to know that this hotel treats it's guests and employees with extreme disregard and no respect whatsoever.  I would advise you to not stay with this hotel at any point.  Who wants to stay in a hotel as a guest to be accused of destroying hotel property and being yelled at in such a horrendous manner?More</t>
   </si>
 </sst>
 </file>
@@ -2225,740 +2039,698 @@
       <c r="A2" t="n">
         <v>57719</v>
       </c>
-      <c r="B2" t="n">
-        <v>6459</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57719</v>
       </c>
-      <c r="B3" t="n">
-        <v>10578</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57719</v>
       </c>
-      <c r="B4" t="n">
-        <v>125139</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57719</v>
       </c>
-      <c r="B5" t="n">
-        <v>125140</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57719</v>
       </c>
-      <c r="B6" t="n">
-        <v>125141</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
         <v>79</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>80</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
       <c r="O6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57719</v>
       </c>
-      <c r="B7" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57719</v>
       </c>
-      <c r="B8" t="n">
-        <v>125142</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57719</v>
       </c>
-      <c r="B9" t="n">
-        <v>125143</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57719</v>
       </c>
-      <c r="B10" t="n">
-        <v>125144</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
         <v>105</v>
       </c>
-      <c r="K10" t="s">
-        <v>112</v>
-      </c>
-      <c r="L10" t="s">
-        <v>113</v>
-      </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57719</v>
       </c>
-      <c r="B11" t="n">
-        <v>125145</v>
-      </c>
-      <c r="C11" t="s">
-        <v>115</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>3</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57719</v>
       </c>
-      <c r="B12" t="n">
-        <v>96840</v>
-      </c>
-      <c r="C12" t="s">
-        <v>123</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57719</v>
       </c>
-      <c r="B13" t="n">
-        <v>125146</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2972,259 +2744,243 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57719</v>
       </c>
-      <c r="B14" t="n">
-        <v>71744</v>
-      </c>
-      <c r="C14" t="s">
-        <v>138</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57719</v>
       </c>
-      <c r="B15" t="n">
-        <v>125140</v>
-      </c>
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="O15" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57719</v>
       </c>
-      <c r="B16" t="n">
-        <v>125147</v>
-      </c>
-      <c r="C16" t="s">
-        <v>152</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>159</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57719</v>
       </c>
-      <c r="B17" t="n">
-        <v>125148</v>
-      </c>
-      <c r="C17" t="s">
-        <v>161</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s">
-        <v>94</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
@@ -3237,37 +2993,37 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="O18" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3281,131 +3037,119 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57719</v>
       </c>
-      <c r="B19" t="n">
-        <v>91777</v>
-      </c>
-      <c r="C19" t="s">
-        <v>174</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="L19" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57719</v>
       </c>
-      <c r="B20" t="n">
-        <v>34707</v>
-      </c>
-      <c r="C20" t="s">
-        <v>182</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="O20" t="s">
-        <v>94</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
       <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3413,115 +3157,111 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57719</v>
       </c>
-      <c r="B21" t="n">
-        <v>125149</v>
-      </c>
-      <c r="C21" t="s">
-        <v>188</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="J21" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="K21" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="O21" t="s">
-        <v>94</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57719</v>
       </c>
-      <c r="B22" t="n">
-        <v>17644</v>
-      </c>
-      <c r="C22" t="s">
-        <v>196</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="J22" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="K22" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="L22" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="O22" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3535,54 +3275,50 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57719</v>
       </c>
-      <c r="B23" t="n">
-        <v>1029</v>
-      </c>
-      <c r="C23" t="s">
-        <v>203</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="J23" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="K23" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="O23" t="s">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3596,54 +3332,50 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57719</v>
       </c>
-      <c r="B24" t="n">
-        <v>125150</v>
-      </c>
-      <c r="C24" t="s">
-        <v>211</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="J24" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="K24" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
+        <v>196</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3657,54 +3389,50 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57719</v>
       </c>
-      <c r="B25" t="n">
-        <v>8163</v>
-      </c>
-      <c r="C25" t="s">
-        <v>218</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="J25" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="K25" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="O25" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3718,7 +3446,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26">
@@ -3731,236 +3459,220 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="J26" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="K26" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="L26" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
+        <v>196</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57719</v>
       </c>
-      <c r="B27" t="n">
-        <v>125151</v>
-      </c>
-      <c r="C27" t="s">
-        <v>230</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="J27" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="K27" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="L27" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
+      <c r="N27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57719</v>
       </c>
-      <c r="B28" t="n">
-        <v>3640</v>
-      </c>
-      <c r="C28" t="s">
-        <v>237</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="J28" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="K28" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" t="s">
-        <v>243</v>
-      </c>
-      <c r="O28" t="s">
-        <v>69</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
       <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>57719</v>
       </c>
-      <c r="B29" t="n">
-        <v>125152</v>
-      </c>
-      <c r="C29" t="s">
-        <v>245</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="J29" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="L29" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="O29" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3968,62 +3680,56 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>57719</v>
       </c>
-      <c r="B30" t="n">
-        <v>6540</v>
-      </c>
-      <c r="C30" t="s">
-        <v>252</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J30" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="K30" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -4035,61 +3741,59 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>57719</v>
       </c>
-      <c r="B31" t="n">
-        <v>54335</v>
-      </c>
-      <c r="C31" t="s">
-        <v>259</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="J31" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="K31" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="O31" t="s">
-        <v>94</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
       <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>5</v>
@@ -4100,63 +3804,57 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>57719</v>
       </c>
-      <c r="B32" t="n">
-        <v>67165</v>
-      </c>
-      <c r="C32" t="s">
-        <v>265</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="J32" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="K32" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="L32" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="O32" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="n">
         <v>5</v>
       </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>5</v>
@@ -4167,61 +3865,59 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>57719</v>
       </c>
-      <c r="B33" t="n">
-        <v>125153</v>
-      </c>
-      <c r="C33" t="s">
-        <v>272</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="J33" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="K33" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="L33" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="O33" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>5</v>
@@ -4232,66 +3928,60 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>57719</v>
       </c>
-      <c r="B34" t="n">
-        <v>20633</v>
-      </c>
-      <c r="C34" t="s">
-        <v>278</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="J34" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="K34" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="L34" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="O34" t="s">
-        <v>94</v>
-      </c>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -4299,62 +3989,62 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>57719</v>
       </c>
-      <c r="B35" t="n">
-        <v>125154</v>
-      </c>
-      <c r="C35" t="s">
-        <v>284</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="J35" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="K35" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="L35" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="O35" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -4362,190 +4052,176 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>57719</v>
       </c>
-      <c r="B36" t="n">
-        <v>22083</v>
-      </c>
-      <c r="C36" t="s">
-        <v>292</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="J36" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="K36" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="L36" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="O36" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>57719</v>
       </c>
-      <c r="B37" t="n">
-        <v>125155</v>
-      </c>
-      <c r="C37" t="s">
-        <v>298</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="J37" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="K37" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="L37" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="O37" t="s">
-        <v>54</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>57719</v>
       </c>
-      <c r="B38" t="n">
-        <v>20929</v>
-      </c>
-      <c r="C38" t="s">
-        <v>304</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="J38" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="K38" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="O38" t="s">
-        <v>94</v>
-      </c>
-      <c r="P38" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4553,63 +4229,57 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>57719</v>
       </c>
-      <c r="B39" t="n">
-        <v>125156</v>
-      </c>
-      <c r="C39" t="s">
-        <v>311</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="J39" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="K39" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="L39" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="O39" t="s">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>4</v>
@@ -4620,186 +4290,174 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>57719</v>
       </c>
-      <c r="B40" t="n">
-        <v>125157</v>
-      </c>
-      <c r="C40" t="s">
-        <v>318</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="J40" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="K40" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="L40" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="O40" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>57719</v>
       </c>
-      <c r="B41" t="n">
-        <v>111626</v>
-      </c>
-      <c r="C41" t="s">
-        <v>326</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="J41" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="K41" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="L41" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="O41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>3</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>57719</v>
       </c>
-      <c r="B42" t="n">
-        <v>125158</v>
-      </c>
-      <c r="C42" t="s">
-        <v>334</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="J42" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="K42" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="L42" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="O42" t="s">
-        <v>54</v>
-      </c>
-      <c r="P42" t="n">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R42" t="s"/>
       <c r="S42" t="s"/>
@@ -4813,309 +4471,289 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>57719</v>
       </c>
-      <c r="B43" t="n">
-        <v>125159</v>
-      </c>
-      <c r="C43" t="s">
-        <v>342</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="J43" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="K43" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="L43" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="O43" t="s">
-        <v>210</v>
-      </c>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
       <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>57719</v>
       </c>
-      <c r="B44" t="n">
-        <v>125160</v>
-      </c>
-      <c r="C44" t="s">
-        <v>348</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="J44" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="K44" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="O44" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
+      <c r="R44" t="s"/>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>57719</v>
       </c>
-      <c r="B45" t="n">
-        <v>125161</v>
-      </c>
-      <c r="C45" t="s">
-        <v>354</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="J45" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="K45" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="L45" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
-      </c>
-      <c r="N45" t="s"/>
-      <c r="O45" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>301</v>
+      </c>
+      <c r="O45" t="s">
+        <v>196</v>
+      </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
       <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>57719</v>
       </c>
-      <c r="B46" t="n">
-        <v>29610</v>
-      </c>
-      <c r="C46" t="s">
-        <v>360</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="J46" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="K46" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="L46" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
-      <c r="N46" t="s">
-        <v>366</v>
-      </c>
-      <c r="O46" t="s">
-        <v>69</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
       <c r="R46" t="s"/>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>4</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>57719</v>
       </c>
-      <c r="B47" t="n">
-        <v>125162</v>
-      </c>
-      <c r="C47" t="s">
-        <v>367</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="J47" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="K47" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="L47" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="O47" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="P47" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
       <c r="R47" t="s"/>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
@@ -5128,60 +4766,58 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>57719</v>
       </c>
-      <c r="B48" t="n">
-        <v>125163</v>
-      </c>
-      <c r="C48" t="s">
-        <v>375</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="J48" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="K48" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="L48" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="O48" t="s">
-        <v>54</v>
-      </c>
-      <c r="P48" t="s"/>
-      <c r="Q48" t="s"/>
-      <c r="R48" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="s"/>
       <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
@@ -5193,70 +4829,60 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>57719</v>
       </c>
-      <c r="B49" t="n">
-        <v>13411</v>
-      </c>
-      <c r="C49" t="s">
-        <v>380</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="J49" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="K49" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="L49" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="O49" t="s">
-        <v>94</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
       <c r="R49" t="n">
         <v>3</v>
       </c>
-      <c r="S49" t="n">
-        <v>1</v>
-      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -5264,70 +4890,66 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>57719</v>
       </c>
-      <c r="B50" t="n">
-        <v>125164</v>
-      </c>
-      <c r="C50" t="s">
-        <v>388</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="J50" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="K50" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="L50" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="O50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -5335,54 +4957,50 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>57719</v>
       </c>
-      <c r="B51" t="n">
-        <v>10038</v>
-      </c>
-      <c r="C51" t="s">
-        <v>395</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="J51" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="K51" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="L51" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="O51" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5406,70 +5024,66 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>57719</v>
       </c>
-      <c r="B52" t="n">
-        <v>125165</v>
-      </c>
-      <c r="C52" t="s">
-        <v>402</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="J52" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="K52" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="L52" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="O52" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5477,70 +5091,66 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>57719</v>
       </c>
-      <c r="B53" t="n">
-        <v>125166</v>
-      </c>
-      <c r="C53" t="s">
-        <v>409</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
       <c r="J53" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="K53" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="L53" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>415</v>
+        <v>354</v>
       </c>
       <c r="O53" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
         <v>3</v>
       </c>
-      <c r="Q53" t="n">
-        <v>3</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
       <c r="S53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5548,190 +5158,182 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>57719</v>
       </c>
-      <c r="B54" t="n">
-        <v>125167</v>
-      </c>
-      <c r="C54" t="s">
-        <v>417</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>418</v>
+        <v>367</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>419</v>
+        <v>368</v>
       </c>
       <c r="J54" t="s">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="K54" t="s">
-        <v>421</v>
+        <v>370</v>
       </c>
       <c r="L54" t="s">
-        <v>422</v>
+        <v>371</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
-      </c>
-      <c r="N54" t="s"/>
-      <c r="O54" t="s"/>
-      <c r="P54" t="s"/>
-      <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
-      <c r="S54" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>372</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
       <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>57719</v>
       </c>
-      <c r="B55" t="n">
-        <v>5469</v>
-      </c>
-      <c r="C55" t="s">
-        <v>423</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="J55" t="s">
-        <v>426</v>
+        <v>376</v>
       </c>
       <c r="K55" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="L55" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s"/>
       <c r="O55" t="s"/>
-      <c r="P55" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>3</v>
-      </c>
-      <c r="R55" t="n">
-        <v>4</v>
-      </c>
-      <c r="S55" t="n">
-        <v>3</v>
-      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>2</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>57719</v>
       </c>
-      <c r="B56" t="n">
-        <v>108740</v>
-      </c>
-      <c r="C56" t="s">
-        <v>429</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>430</v>
+        <v>379</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>431</v>
+        <v>380</v>
       </c>
       <c r="J56" t="s">
-        <v>432</v>
+        <v>381</v>
       </c>
       <c r="K56" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="L56" t="s">
-        <v>434</v>
+        <v>383</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N56" t="s"/>
       <c r="O56" t="s"/>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5739,55 +5341,47 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>434</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>57719</v>
       </c>
-      <c r="B57" t="n">
-        <v>125168</v>
-      </c>
-      <c r="C57" t="s">
-        <v>435</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="J57" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="K57" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="L57" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
-      </c>
-      <c r="N57" t="s">
-        <v>441</v>
-      </c>
-      <c r="O57" t="s">
-        <v>94</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
       <c r="P57" t="n">
         <v>5</v>
       </c>
@@ -5810,51 +5404,51 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57719</v>
       </c>
-      <c r="B58" t="n">
-        <v>125169</v>
-      </c>
-      <c r="C58" t="s">
-        <v>442</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>443</v>
+        <v>389</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>444</v>
+        <v>390</v>
       </c>
       <c r="J58" t="s">
-        <v>445</v>
+        <v>391</v>
       </c>
       <c r="K58" t="s">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="L58" t="s">
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
-      </c>
-      <c r="N58" t="s"/>
-      <c r="O58" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>394</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
       <c r="P58" t="n">
         <v>5</v>
       </c>
@@ -5877,68 +5471,62 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>447</v>
+        <v>393</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>57719</v>
       </c>
-      <c r="B59" t="n">
-        <v>125170</v>
-      </c>
-      <c r="C59" t="s">
-        <v>448</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>449</v>
+        <v>395</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>450</v>
+        <v>396</v>
       </c>
       <c r="J59" t="s">
-        <v>451</v>
+        <v>397</v>
       </c>
       <c r="K59" t="s">
-        <v>452</v>
+        <v>398</v>
       </c>
       <c r="L59" t="s">
-        <v>453</v>
+        <v>399</v>
       </c>
       <c r="M59" t="n">
-        <v>2</v>
-      </c>
-      <c r="N59" t="s">
-        <v>441</v>
-      </c>
-      <c r="O59" t="s">
-        <v>69</v>
-      </c>
-      <c r="P59" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -5946,70 +5534,64 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>454</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>57719</v>
       </c>
-      <c r="B60" t="n">
-        <v>5140</v>
-      </c>
-      <c r="C60" t="s">
-        <v>455</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>456</v>
+        <v>400</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>457</v>
+        <v>401</v>
       </c>
       <c r="J60" t="s">
-        <v>458</v>
+        <v>402</v>
       </c>
       <c r="K60" t="s">
-        <v>269</v>
+        <v>403</v>
       </c>
       <c r="L60" t="s">
-        <v>459</v>
+        <v>404</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>460</v>
+        <v>394</v>
       </c>
       <c r="O60" t="s">
-        <v>159</v>
-      </c>
-      <c r="P60" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P60" t="s"/>
       <c r="Q60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R60" t="n">
         <v>4</v>
       </c>
       <c r="S60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -6017,53 +5599,53 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>459</v>
+        <v>405</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>57719</v>
       </c>
-      <c r="B61" t="n">
-        <v>125171</v>
-      </c>
-      <c r="C61" t="s">
-        <v>461</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>462</v>
+        <v>406</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>463</v>
+        <v>407</v>
       </c>
       <c r="J61" t="s">
-        <v>464</v>
+        <v>408</v>
       </c>
       <c r="K61" t="s">
-        <v>465</v>
+        <v>247</v>
       </c>
       <c r="L61" t="s">
-        <v>466</v>
+        <v>409</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
-      </c>
-      <c r="N61" t="s"/>
-      <c r="O61" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>410</v>
+      </c>
+      <c r="O61" t="s">
+        <v>151</v>
+      </c>
       <c r="P61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q61" t="n">
         <v>5</v>
@@ -6072,11 +5654,11 @@
         <v>4</v>
       </c>
       <c r="S61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -6084,60 +5666,52 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>466</v>
+        <v>409</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>57719</v>
       </c>
-      <c r="B62" t="n">
-        <v>125157</v>
-      </c>
-      <c r="C62" t="s">
-        <v>334</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>467</v>
+        <v>411</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>468</v>
+        <v>412</v>
       </c>
       <c r="J62" t="s">
-        <v>469</v>
+        <v>413</v>
       </c>
       <c r="K62" t="s">
-        <v>470</v>
+        <v>414</v>
       </c>
       <c r="L62" t="s">
-        <v>471</v>
+        <v>415</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
-      <c r="N62" t="s">
-        <v>472</v>
-      </c>
-      <c r="O62" t="s">
-        <v>210</v>
-      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
       <c r="P62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R62" t="n">
         <v>4</v>
@@ -6147,7 +5721,7 @@
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
@@ -6155,59 +5729,59 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>473</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>57719</v>
       </c>
-      <c r="B63" t="n">
-        <v>125172</v>
-      </c>
-      <c r="C63" t="s">
-        <v>474</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>475</v>
+        <v>416</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>476</v>
+        <v>417</v>
       </c>
       <c r="J63" t="s">
-        <v>477</v>
+        <v>418</v>
       </c>
       <c r="K63" t="s">
-        <v>478</v>
+        <v>419</v>
       </c>
       <c r="L63" t="s">
-        <v>479</v>
+        <v>420</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
-      <c r="N63" t="s"/>
-      <c r="O63" t="s"/>
+      <c r="N63" t="s">
+        <v>421</v>
+      </c>
+      <c r="O63" t="s">
+        <v>196</v>
+      </c>
       <c r="P63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q63" t="n">
         <v>4</v>
       </c>
       <c r="R63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S63" t="n">
         <v>4</v>
@@ -6222,62 +5796,58 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>479</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>57719</v>
       </c>
-      <c r="B64" t="n">
-        <v>125173</v>
-      </c>
-      <c r="C64" t="s">
-        <v>480</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>481</v>
+        <v>423</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>482</v>
+        <v>424</v>
       </c>
       <c r="J64" t="s">
-        <v>483</v>
+        <v>425</v>
       </c>
       <c r="K64" t="s">
-        <v>484</v>
+        <v>426</v>
       </c>
       <c r="L64" t="s">
-        <v>485</v>
+        <v>427</v>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N64" t="s"/>
       <c r="O64" t="s"/>
       <c r="P64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
@@ -6289,63 +5859,55 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>485</v>
+        <v>427</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>57719</v>
       </c>
-      <c r="B65" t="n">
-        <v>125174</v>
-      </c>
-      <c r="C65" t="s">
-        <v>486</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>487</v>
+        <v>428</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>488</v>
+        <v>429</v>
       </c>
       <c r="J65" t="s">
-        <v>489</v>
+        <v>430</v>
       </c>
       <c r="K65" t="s">
-        <v>490</v>
+        <v>431</v>
       </c>
       <c r="L65" t="s">
-        <v>491</v>
+        <v>432</v>
       </c>
       <c r="M65" t="n">
-        <v>4</v>
-      </c>
-      <c r="N65" t="s">
-        <v>472</v>
-      </c>
-      <c r="O65" t="s">
-        <v>94</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
       <c r="P65" t="n">
         <v>5</v>
       </c>
       <c r="Q65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S65" t="n">
         <v>5</v>
@@ -6360,70 +5922,66 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>491</v>
+        <v>432</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>57719</v>
       </c>
-      <c r="B66" t="n">
-        <v>125175</v>
-      </c>
-      <c r="C66" t="s">
-        <v>492</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>493</v>
+        <v>433</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>494</v>
+        <v>434</v>
       </c>
       <c r="J66" t="s">
-        <v>495</v>
+        <v>435</v>
       </c>
       <c r="K66" t="s">
-        <v>496</v>
+        <v>436</v>
       </c>
       <c r="L66" t="s">
-        <v>497</v>
+        <v>437</v>
       </c>
       <c r="M66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>472</v>
+        <v>421</v>
       </c>
       <c r="O66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S66" t="n">
         <v>5</v>
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -6431,70 +5989,66 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>498</v>
+        <v>437</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>57719</v>
       </c>
-      <c r="B67" t="n">
-        <v>2639</v>
-      </c>
-      <c r="C67" t="s">
-        <v>499</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>501</v>
+        <v>439</v>
       </c>
       <c r="J67" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="K67" t="s">
-        <v>503</v>
+        <v>441</v>
       </c>
       <c r="L67" t="s">
-        <v>504</v>
+        <v>442</v>
       </c>
       <c r="M67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>505</v>
+        <v>421</v>
       </c>
       <c r="O67" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="P67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S67" t="n">
         <v>5</v>
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -6502,70 +6056,66 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>504</v>
+        <v>443</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>57719</v>
       </c>
-      <c r="B68" t="n">
-        <v>125157</v>
-      </c>
-      <c r="C68" t="s">
-        <v>334</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>506</v>
+        <v>444</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>507</v>
+        <v>445</v>
       </c>
       <c r="J68" t="s">
-        <v>508</v>
+        <v>446</v>
       </c>
       <c r="K68" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="L68" t="s">
-        <v>510</v>
+        <v>448</v>
       </c>
       <c r="M68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>505</v>
+        <v>449</v>
       </c>
       <c r="O68" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="P68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q68" t="n">
         <v>5</v>
       </c>
       <c r="R68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -6573,54 +6123,50 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>511</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>57719</v>
       </c>
-      <c r="B69" t="n">
-        <v>634</v>
-      </c>
-      <c r="C69" t="s">
-        <v>512</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>513</v>
+        <v>450</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>514</v>
+        <v>451</v>
       </c>
       <c r="J69" t="s">
-        <v>515</v>
+        <v>452</v>
       </c>
       <c r="K69" t="s">
-        <v>516</v>
+        <v>453</v>
       </c>
       <c r="L69" t="s">
-        <v>517</v>
+        <v>454</v>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>518</v>
+        <v>449</v>
       </c>
       <c r="O69" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6629,14 +6175,14 @@
         <v>5</v>
       </c>
       <c r="R69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -6644,54 +6190,50 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>517</v>
+        <v>455</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>57719</v>
       </c>
-      <c r="B70" t="n">
-        <v>125176</v>
-      </c>
-      <c r="C70" t="s">
-        <v>519</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>520</v>
+        <v>456</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>521</v>
+        <v>457</v>
       </c>
       <c r="J70" t="s">
-        <v>522</v>
+        <v>458</v>
       </c>
       <c r="K70" t="s">
-        <v>523</v>
+        <v>459</v>
       </c>
       <c r="L70" t="s">
-        <v>524</v>
+        <v>460</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>525</v>
+        <v>461</v>
       </c>
       <c r="O70" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6715,51 +6257,51 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>57719</v>
       </c>
-      <c r="B71" t="n">
-        <v>125177</v>
-      </c>
-      <c r="C71" t="s">
-        <v>527</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>528</v>
+        <v>462</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>529</v>
+        <v>463</v>
       </c>
       <c r="J71" t="s">
-        <v>530</v>
+        <v>464</v>
       </c>
       <c r="K71" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
       <c r="L71" t="s">
-        <v>532</v>
+        <v>466</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
-      <c r="N71" t="s"/>
-      <c r="O71" t="s"/>
+      <c r="N71" t="s">
+        <v>467</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
       <c r="P71" t="n">
         <v>5</v>
       </c>
@@ -6782,55 +6324,47 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>533</v>
+        <v>468</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>57719</v>
       </c>
-      <c r="B72" t="n">
-        <v>125178</v>
-      </c>
-      <c r="C72" t="s">
-        <v>534</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>535</v>
+        <v>469</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>536</v>
+        <v>470</v>
       </c>
       <c r="J72" t="s">
-        <v>537</v>
+        <v>471</v>
       </c>
       <c r="K72" t="s">
-        <v>538</v>
+        <v>472</v>
       </c>
       <c r="L72" t="s">
-        <v>539</v>
+        <v>473</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
-      <c r="N72" t="s">
-        <v>540</v>
-      </c>
-      <c r="O72" t="s">
-        <v>94</v>
-      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
       <c r="P72" t="n">
         <v>5</v>
       </c>
@@ -6838,14 +6372,14 @@
         <v>5</v>
       </c>
       <c r="R72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T72" t="s"/>
       <c r="U72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V72" t="n">
         <v>0</v>
@@ -6853,62 +6387,66 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>57719</v>
       </c>
-      <c r="B73" t="n">
-        <v>125179</v>
-      </c>
-      <c r="C73" t="s">
-        <v>542</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>543</v>
+        <v>475</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>544</v>
+        <v>476</v>
       </c>
       <c r="J73" t="s">
-        <v>545</v>
+        <v>477</v>
       </c>
       <c r="K73" t="s">
-        <v>546</v>
+        <v>478</v>
       </c>
       <c r="L73" t="s">
-        <v>547</v>
+        <v>479</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>548</v>
+        <v>480</v>
       </c>
       <c r="O73" t="s">
-        <v>69</v>
-      </c>
-      <c r="P73" t="s"/>
-      <c r="Q73" t="s"/>
-      <c r="R73" t="s"/>
-      <c r="S73" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
       <c r="T73" t="s"/>
       <c r="U73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -6916,54 +6454,52 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>549</v>
+        <v>481</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>57719</v>
       </c>
-      <c r="B74" t="n">
-        <v>125180</v>
-      </c>
-      <c r="C74" t="s">
-        <v>550</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>551</v>
+        <v>482</v>
       </c>
       <c r="G74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>552</v>
+        <v>483</v>
       </c>
       <c r="J74" t="s">
-        <v>553</v>
+        <v>484</v>
       </c>
       <c r="K74" t="s">
-        <v>554</v>
+        <v>485</v>
       </c>
       <c r="L74" t="s">
-        <v>555</v>
+        <v>486</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
-      <c r="N74" t="s"/>
-      <c r="O74" t="s"/>
-      <c r="P74" t="n">
-        <v>1</v>
-      </c>
+      <c r="N74" t="s">
+        <v>487</v>
+      </c>
+      <c r="O74" t="s">
+        <v>73</v>
+      </c>
+      <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
       <c r="R74" t="s"/>
       <c r="S74" t="s"/>
@@ -6977,7 +6513,64 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>556</v>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>57719</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>489</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>490</v>
+      </c>
+      <c r="J75" t="s">
+        <v>491</v>
+      </c>
+      <c r="K75" t="s">
+        <v>492</v>
+      </c>
+      <c r="L75" t="s">
+        <v>493</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
